--- a/services/frontend/static/js/posts/gai_animals/data.xlsx
+++ b/services/frontend/static/js/posts/gai_animals/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FS14TK/Documents/Code/philippstuerner/services/frontend/static/js/posts/gai_animals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30FD54D-E6CE-A244-83C7-1E3F731630C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05217A3-248C-8849-8915-E772D402AEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="1394">
   <si>
     <t>name</t>
   </si>
@@ -3993,13 +3993,6 @@
     <t>724</t>
   </si>
   <si>
-    <t>Iberian lynx is a species of wild cat that is native to the Iberian Peninsula in southwestern Europe. This lynx is one of the rarest and most endangered species of felines in the world. In fact, it was thought to be on the brink of extinction until recently, when conservation efforts were initiated. Spain is the only country in the world where the Iberian lynx can be found.
-The Iberian lynx is a medium-sized wild cat that has distinctive black tufts of hair on its ears and a short, stubby tail. It has long legs and large paws, which help it to move swiftly and silently through its natural habitat. The Iberian lynx is a solitary animal, and it is most active at night when it hunts for prey, which includes rabbits, hares, and small deer.
-Spain is a country that is rich in biodiversity and has a long history of wildlife conservation. The Iberian lynx is one of the most iconic species of wildlife in Spain, and it is revered by the Spanish people. In recent years, conservation efforts have been stepped up to protect this species, and the population of Iberian lynx in Spain has increased. Currently, there are around 400 individuals living in the wild, and this number is expected to increase in the coming years.
-The natural habitat of the Iberian lynx is the Mediterranean forest and scrubland, which is found in the southwestern part of Spain. The Iberian lynx is adapted to living in this type of environment, and it has evolved to be a skilled hunter in this area. The Mediterranean forest and scrubland is also home to other endangered species, such as the Iberian imperial eagle, the Spanish lynx, and the European otter.
-In conclusion, the Iberian lynx is a rare and endangered species of wild cat that is found only in Spain. It is an important part of Spain's biodiversity, and efforts are being made to protect this species and its natural habitat. With continued conservation efforts, it is hoped that the population of Iberian lynx will continue to increase, and this species will thrive once again in the wild.</t>
-  </si>
-  <si>
     <t>spain</t>
   </si>
   <si>
@@ -4835,6 +4828,17 @@
   </si>
   <si>
     <t>Kudu</t>
+  </si>
+  <si>
+    <t>Bull</t>
+  </si>
+  <si>
+    <t>Spain is a country located in southwestern Europe. It has a rich culture and history that has influenced the world in many ways. One of the most well-known aspects of Spanish culture is bullfighting. Bulls have been a part of Spanish culture for thousands of years, and bullfighting has been a popular pastime since the 1700s.
+Bulls are an important symbol in Spanish culture, representing strength, power, and bravery. The Spanish bull breed is unique and has been developed over many centuries. Spanish fighting bulls are known for their muscular build, sharp horns, and aggressive temperament. These bulls are bred specifically for bullfighting and are raised in special ranches.
+The bullfighting spectacle consists of a bullfighter and his team, known as the cuadrilla, facing off against the bull in a bullring. The objective of the bullfighter is to demonstrate his bravery and skill by performing a series of passes with the bull. The fight ends when the bull is either killed or spared.
+Bullfighting has become a controversial topic in recent years, with animal rights activists calling for its abolition. However, it remains an important part of Spanish culture and continues to attract tourists from all over the world.
+Aside from bullfighting, Spain is also known for its rich cuisine, music, dance, art, and architecture. Some of the most famous landmarks in Spain include the Sagrada Familia, Park Guell, Alhambra, and the Prado Museum.
+Overall, Spain is a vibrant and diverse country with a long and fascinating history. Its culture is deeply rooted in tradition and has evolved over time to become what it is today. The bull is just one of the many symbols that make up the tapestry of Spanish culture.</t>
   </si>
 </sst>
 </file>
@@ -4853,6 +4857,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -5009,20 +5014,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -5327,11 +5328,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A250"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="C210" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="8.83203125" style="15"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -5372,28 +5376,28 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>142</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>34</v>
       </c>
     </row>
@@ -5404,26 +5408,26 @@
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>150</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <v>154</v>
       </c>
     </row>
@@ -5434,28 +5438,28 @@
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>150</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>39</v>
       </c>
     </row>
@@ -5466,28 +5470,28 @@
       <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>2</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <v>15</v>
       </c>
     </row>
@@ -5498,26 +5502,26 @@
       <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>9</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>61</v>
       </c>
     </row>
@@ -5528,28 +5532,28 @@
       <c r="B7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>150</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>39</v>
       </c>
     </row>
@@ -5560,28 +5564,28 @@
       <c r="B8" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>2</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>17</v>
       </c>
     </row>
@@ -5592,24 +5596,24 @@
       <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>19</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>29</v>
       </c>
     </row>
@@ -5620,22 +5624,22 @@
       <c r="B10" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="12" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>1370</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>1371</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -5644,28 +5648,28 @@
       <c r="B11" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>19</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <v>29</v>
       </c>
     </row>
@@ -5676,28 +5680,28 @@
       <c r="B12" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>19</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>5</v>
       </c>
     </row>
@@ -5708,28 +5712,28 @@
       <c r="B13" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>142</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <v>145</v>
       </c>
     </row>
@@ -5740,26 +5744,26 @@
       <c r="B14" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>19</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <v>29</v>
       </c>
     </row>
@@ -5770,28 +5774,28 @@
       <c r="B15" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>9</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <v>53</v>
       </c>
     </row>
@@ -5802,28 +5806,28 @@
       <c r="B16" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>150</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <v>155</v>
       </c>
     </row>
@@ -5834,28 +5838,28 @@
       <c r="B17" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>142</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <v>145</v>
       </c>
     </row>
@@ -5866,28 +5870,28 @@
       <c r="B18" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>19</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <v>29</v>
       </c>
     </row>
@@ -5898,28 +5902,28 @@
       <c r="B19" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <v>142</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <v>145</v>
       </c>
     </row>
@@ -5930,28 +5934,28 @@
       <c r="B20" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>142</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <v>34</v>
       </c>
     </row>
@@ -5962,28 +5966,28 @@
       <c r="B21" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>19</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <v>29</v>
       </c>
     </row>
@@ -5994,28 +5998,28 @@
       <c r="B22" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <v>150</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="7">
         <v>151</v>
       </c>
     </row>
@@ -6026,28 +6030,28 @@
       <c r="B23" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <v>150</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="9">
         <v>155</v>
       </c>
     </row>
@@ -6058,28 +6062,28 @@
       <c r="B24" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>19</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="7">
         <v>13</v>
       </c>
     </row>
@@ -6090,28 +6094,28 @@
       <c r="B25" t="s">
         <v>158</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <v>2</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <v>11</v>
       </c>
     </row>
@@ -6122,26 +6126,26 @@
       <c r="B26" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <v>19</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="7">
         <v>21</v>
       </c>
     </row>
@@ -6152,28 +6156,28 @@
       <c r="B27" t="s">
         <v>170</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="8">
         <v>142</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="9">
         <v>34</v>
       </c>
     </row>
@@ -6184,28 +6188,28 @@
       <c r="B28" t="s">
         <v>176</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>19</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="7">
         <v>5</v>
       </c>
     </row>
@@ -6216,26 +6220,26 @@
       <c r="B29" t="s">
         <v>182</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9" t="s">
+      <c r="C29" s="13"/>
+      <c r="D29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="8">
         <v>19</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="9">
         <v>29</v>
       </c>
     </row>
@@ -6246,28 +6250,28 @@
       <c r="B30" t="s">
         <v>186</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <v>150</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="7">
         <v>39</v>
       </c>
     </row>
@@ -6278,28 +6282,28 @@
       <c r="B31" t="s">
         <v>192</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="8">
         <v>2</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="9">
         <v>18</v>
       </c>
     </row>
@@ -6310,20 +6314,20 @@
       <c r="B32" t="s">
         <v>199</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7" t="s">
+      <c r="C32" s="12"/>
+      <c r="D32" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="8"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
@@ -6332,28 +6336,28 @@
       <c r="B33" t="s">
         <v>203</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="8">
         <v>19</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="9">
         <v>5</v>
       </c>
     </row>
@@ -6364,20 +6368,20 @@
       <c r="B34" t="s">
         <v>209</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="12"/>
+      <c r="D34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="8"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
@@ -6386,28 +6390,28 @@
       <c r="B35" t="s">
         <v>213</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="8">
         <v>142</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="9">
         <v>35</v>
       </c>
     </row>
@@ -6418,28 +6422,28 @@
       <c r="B36" t="s">
         <v>220</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="6">
         <v>150</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="7">
         <v>151</v>
       </c>
     </row>
@@ -6450,28 +6454,28 @@
       <c r="B37" t="s">
         <v>226</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="8">
         <v>2</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="9">
         <v>11</v>
       </c>
     </row>
@@ -6482,28 +6486,28 @@
       <c r="B38" t="s">
         <v>232</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="6">
         <v>2</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J38" s="7">
         <v>14</v>
       </c>
     </row>
@@ -6514,28 +6518,28 @@
       <c r="B39" t="s">
         <v>239</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="8">
         <v>142</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J39" s="9">
         <v>35</v>
       </c>
     </row>
@@ -6546,28 +6550,28 @@
       <c r="B40" t="s">
         <v>245</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="6">
         <v>2</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="7">
         <v>17</v>
       </c>
     </row>
@@ -6578,28 +6582,28 @@
       <c r="B41" t="s">
         <v>251</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="8">
         <v>19</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="9">
         <v>21</v>
       </c>
     </row>
@@ -6610,28 +6614,28 @@
       <c r="B42" t="s">
         <v>257</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="6">
         <v>2</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J42" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6642,26 +6646,26 @@
       <c r="B43" t="s">
         <v>263</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9" t="s">
+      <c r="C43" s="13"/>
+      <c r="D43" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="8">
         <v>19</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="9">
         <v>29</v>
       </c>
     </row>
@@ -6672,28 +6676,28 @@
       <c r="B44" t="s">
         <v>267</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="6">
         <v>2</v>
       </c>
-      <c r="J44" s="8">
+      <c r="J44" s="7">
         <v>17</v>
       </c>
     </row>
@@ -6704,28 +6708,28 @@
       <c r="B45" t="s">
         <v>273</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H45" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="8">
         <v>2</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J45" s="9">
         <v>17</v>
       </c>
     </row>
@@ -6736,28 +6740,28 @@
       <c r="B46" t="s">
         <v>279</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="6">
         <v>19</v>
       </c>
-      <c r="J46" s="8">
+      <c r="J46" s="7">
         <v>5</v>
       </c>
     </row>
@@ -6768,28 +6772,28 @@
       <c r="B47" t="s">
         <v>285</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H47" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="8">
         <v>142</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47" s="9">
         <v>30</v>
       </c>
     </row>
@@ -6800,20 +6804,20 @@
       <c r="B48" t="s">
         <v>292</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7" t="s">
+      <c r="C48" s="12"/>
+      <c r="D48" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="8"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="7"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
@@ -6822,20 +6826,20 @@
       <c r="B49" t="s">
         <v>296</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9" t="s">
+      <c r="C49" s="13"/>
+      <c r="D49" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="10"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="9"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
@@ -6844,28 +6848,28 @@
       <c r="B50" t="s">
         <v>300</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="6">
         <v>19</v>
       </c>
-      <c r="J50" s="8">
+      <c r="J50" s="7">
         <v>5</v>
       </c>
     </row>
@@ -6876,28 +6880,28 @@
       <c r="B51" t="s">
         <v>305</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G51" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="H51" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="8">
         <v>2</v>
       </c>
-      <c r="J51" s="10">
+      <c r="J51" s="9">
         <v>14</v>
       </c>
     </row>
@@ -6908,28 +6912,28 @@
       <c r="B52" t="s">
         <v>311</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G52" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H52" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="6">
         <v>2</v>
       </c>
-      <c r="J52" s="8">
+      <c r="J52" s="7">
         <v>17</v>
       </c>
     </row>
@@ -6940,28 +6944,28 @@
       <c r="B53" t="s">
         <v>317</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="H53" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I53" s="8">
         <v>2</v>
       </c>
-      <c r="J53" s="10">
+      <c r="J53" s="9">
         <v>17</v>
       </c>
     </row>
@@ -6972,26 +6976,26 @@
       <c r="B54" t="s">
         <v>323</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7" t="s">
+      <c r="C54" s="12"/>
+      <c r="D54" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G54" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H54" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="6">
         <v>9</v>
       </c>
-      <c r="J54" s="8">
+      <c r="J54" s="7">
         <v>61</v>
       </c>
     </row>
@@ -7002,28 +7006,28 @@
       <c r="B55" t="s">
         <v>327</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H55" s="9" t="s">
+      <c r="H55" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="I55" s="9">
+      <c r="I55" s="8">
         <v>19</v>
       </c>
-      <c r="J55" s="10">
+      <c r="J55" s="9">
         <v>13</v>
       </c>
     </row>
@@ -7034,28 +7038,28 @@
       <c r="B56" t="s">
         <v>333</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="6">
         <v>2</v>
       </c>
-      <c r="J56" s="8">
+      <c r="J56" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7066,28 +7070,28 @@
       <c r="B57" t="s">
         <v>338</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="H57" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I57" s="9">
+      <c r="I57" s="8">
         <v>150</v>
       </c>
-      <c r="J57" s="10">
+      <c r="J57" s="9">
         <v>39</v>
       </c>
     </row>
@@ -7098,28 +7102,28 @@
       <c r="B58" t="s">
         <v>344</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="6">
         <v>19</v>
       </c>
-      <c r="J58" s="8">
+      <c r="J58" s="7">
         <v>29</v>
       </c>
     </row>
@@ -7130,26 +7134,26 @@
       <c r="B59" t="s">
         <v>350</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9" t="s">
+      <c r="C59" s="13"/>
+      <c r="D59" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G59" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="H59" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I59" s="9">
+      <c r="I59" s="8">
         <v>19</v>
       </c>
-      <c r="J59" s="10">
+      <c r="J59" s="9">
         <v>29</v>
       </c>
     </row>
@@ -7160,28 +7164,28 @@
       <c r="B60" t="s">
         <v>354</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H60" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="6">
         <v>142</v>
       </c>
-      <c r="J60" s="8">
+      <c r="J60" s="7">
         <v>145</v>
       </c>
     </row>
@@ -7192,28 +7196,28 @@
       <c r="B61" t="s">
         <v>360</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="G61" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="H61" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="I61" s="9">
+      <c r="I61" s="8">
         <v>150</v>
       </c>
-      <c r="J61" s="10">
+      <c r="J61" s="9">
         <v>151</v>
       </c>
     </row>
@@ -7224,28 +7228,28 @@
       <c r="B62" t="s">
         <v>366</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G62" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H62" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="6">
         <v>150</v>
       </c>
-      <c r="J62" s="8">
+      <c r="J62" s="7">
         <v>154</v>
       </c>
     </row>
@@ -7256,28 +7260,28 @@
       <c r="B63" t="s">
         <v>372</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F63" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="G63" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="H63" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I63" s="8">
         <v>2</v>
       </c>
-      <c r="J63" s="10">
+      <c r="J63" s="9">
         <v>14</v>
       </c>
     </row>
@@ -7288,28 +7292,28 @@
       <c r="B64" t="s">
         <v>378</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G64" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H64" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="6">
         <v>19</v>
       </c>
-      <c r="J64" s="8">
+      <c r="J64" s="7">
         <v>29</v>
       </c>
     </row>
@@ -7320,28 +7324,28 @@
       <c r="B65" t="s">
         <v>384</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F65" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="G65" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H65" s="9" t="s">
+      <c r="H65" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I65" s="8">
         <v>19</v>
       </c>
-      <c r="J65" s="10">
+      <c r="J65" s="9">
         <v>29</v>
       </c>
     </row>
@@ -7352,28 +7356,28 @@
       <c r="B66" t="s">
         <v>390</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G66" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H66" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I66" s="6">
         <v>19</v>
       </c>
-      <c r="J66" s="8">
+      <c r="J66" s="7">
         <v>5</v>
       </c>
     </row>
@@ -7384,28 +7388,28 @@
       <c r="B67" t="s">
         <v>396</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E67" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F67" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G67" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="H67" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I67" s="9">
+      <c r="I67" s="8">
         <v>2</v>
       </c>
-      <c r="J67" s="10">
+      <c r="J67" s="9">
         <v>15</v>
       </c>
     </row>
@@ -7416,28 +7420,28 @@
       <c r="B68" t="s">
         <v>402</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="G68" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H68" s="7" t="s">
+      <c r="H68" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="6">
         <v>19</v>
       </c>
-      <c r="J68" s="8">
+      <c r="J68" s="7">
         <v>13</v>
       </c>
     </row>
@@ -7448,28 +7452,28 @@
       <c r="B69" t="s">
         <v>408</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="G69" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="H69" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I69" s="9">
+      <c r="I69" s="8">
         <v>2</v>
       </c>
-      <c r="J69" s="10">
+      <c r="J69" s="9">
         <v>17</v>
       </c>
     </row>
@@ -7480,28 +7484,28 @@
       <c r="B70" t="s">
         <v>414</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G70" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="H70" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I70" s="6">
         <v>2</v>
       </c>
-      <c r="J70" s="8">
+      <c r="J70" s="7">
         <v>14</v>
       </c>
     </row>
@@ -7512,28 +7516,28 @@
       <c r="B71" t="s">
         <v>419</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="G71" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H71" s="9" t="s">
+      <c r="H71" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I71" s="9">
+      <c r="I71" s="8">
         <v>150</v>
       </c>
-      <c r="J71" s="10">
+      <c r="J71" s="9">
         <v>154</v>
       </c>
     </row>
@@ -7544,28 +7548,28 @@
       <c r="B72" t="s">
         <v>425</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G72" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H72" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I72" s="6">
         <v>2</v>
       </c>
-      <c r="J72" s="8">
+      <c r="J72" s="7">
         <v>14</v>
       </c>
     </row>
@@ -7576,28 +7580,28 @@
       <c r="B73" t="s">
         <v>431</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="13" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>1372</v>
       </c>
-      <c r="D73" s="9" t="s">
-        <v>1373</v>
-      </c>
-      <c r="E73" s="9" t="s">
+      <c r="E73" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="F73" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="G73" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="H73" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I73" s="9">
+      <c r="I73" s="8">
         <v>19</v>
       </c>
-      <c r="J73" s="10">
+      <c r="J73" s="9">
         <v>5</v>
       </c>
     </row>
@@ -7608,26 +7612,26 @@
       <c r="B74" t="s">
         <v>435</v>
       </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7" t="s">
+      <c r="C74" s="12"/>
+      <c r="D74" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="G74" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H74" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I74" s="6">
         <v>150</v>
       </c>
-      <c r="J74" s="8">
+      <c r="J74" s="7">
         <v>154</v>
       </c>
     </row>
@@ -7638,28 +7642,28 @@
       <c r="B75" t="s">
         <v>439</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F75" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="G75" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="H75" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="I75" s="9">
+      <c r="I75" s="8">
         <v>9</v>
       </c>
-      <c r="J75" s="10">
+      <c r="J75" s="9">
         <v>54</v>
       </c>
     </row>
@@ -7670,28 +7674,28 @@
       <c r="B76" t="s">
         <v>446</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="G76" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H76" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I76" s="6">
         <v>150</v>
       </c>
-      <c r="J76" s="8">
+      <c r="J76" s="7">
         <v>154</v>
       </c>
     </row>
@@ -7702,28 +7706,28 @@
       <c r="B77" t="s">
         <v>452</v>
       </c>
-      <c r="C77" s="11" t="s">
-        <v>1374</v>
-      </c>
-      <c r="D77" s="9" t="s">
+      <c r="C77" s="13" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D77" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="F77" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="G77" s="9" t="s">
+      <c r="G77" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H77" s="9" t="s">
+      <c r="H77" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="I77" s="9">
+      <c r="I77" s="8">
         <v>150</v>
       </c>
-      <c r="J77" s="10">
+      <c r="J77" s="9">
         <v>155</v>
       </c>
     </row>
@@ -7734,26 +7738,26 @@
       <c r="B78" t="s">
         <v>457</v>
       </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7" t="s">
+      <c r="C78" s="12"/>
+      <c r="D78" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="G78" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="H78" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I78" s="6">
         <v>19</v>
       </c>
-      <c r="J78" s="8">
+      <c r="J78" s="7">
         <v>5</v>
       </c>
     </row>
@@ -7764,26 +7768,26 @@
       <c r="B79" t="s">
         <v>461</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9" t="s">
+      <c r="C79" s="13"/>
+      <c r="D79" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="F79" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="G79" s="9" t="s">
+      <c r="G79" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H79" s="9" t="s">
+      <c r="H79" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I79" s="9">
+      <c r="I79" s="8">
         <v>9</v>
       </c>
-      <c r="J79" s="10">
+      <c r="J79" s="9">
         <v>61</v>
       </c>
     </row>
@@ -7794,22 +7798,22 @@
       <c r="B80" t="s">
         <v>465</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="12" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>1375</v>
       </c>
-      <c r="D80" s="7" t="s">
-        <v>1376</v>
-      </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="8"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="7"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
@@ -7818,28 +7822,28 @@
       <c r="B81" t="s">
         <v>469</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="F81" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="G81" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H81" s="9" t="s">
+      <c r="H81" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I81" s="9">
+      <c r="I81" s="8">
         <v>2</v>
       </c>
-      <c r="J81" s="10">
+      <c r="J81" s="9">
         <v>17</v>
       </c>
     </row>
@@ -7850,28 +7854,28 @@
       <c r="B82" t="s">
         <v>475</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="G82" s="7" t="s">
+      <c r="G82" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H82" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I82" s="6">
         <v>2</v>
       </c>
-      <c r="J82" s="8">
+      <c r="J82" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7882,28 +7886,28 @@
       <c r="B83" t="s">
         <v>481</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="F83" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="G83" s="9" t="s">
+      <c r="G83" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H83" s="9" t="s">
+      <c r="H83" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I83" s="9">
+      <c r="I83" s="8">
         <v>142</v>
       </c>
-      <c r="J83" s="10">
+      <c r="J83" s="9">
         <v>145</v>
       </c>
     </row>
@@ -7914,28 +7918,28 @@
       <c r="B84" t="s">
         <v>487</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="G84" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H84" s="7" t="s">
+      <c r="H84" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I84" s="6">
         <v>150</v>
       </c>
-      <c r="J84" s="8">
+      <c r="J84" s="7">
         <v>155</v>
       </c>
     </row>
@@ -7946,28 +7950,28 @@
       <c r="B85" t="s">
         <v>493</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="13" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D85" s="8" t="s">
         <v>1377</v>
       </c>
-      <c r="D85" s="9" t="s">
-        <v>1378</v>
-      </c>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="F85" s="9" t="s">
+      <c r="F85" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="G85" s="9" t="s">
+      <c r="G85" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H85" s="9" t="s">
+      <c r="H85" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="I85" s="9">
+      <c r="I85" s="8">
         <v>2</v>
       </c>
-      <c r="J85" s="10">
+      <c r="J85" s="9">
         <v>11</v>
       </c>
     </row>
@@ -7978,26 +7982,26 @@
       <c r="B86" t="s">
         <v>497</v>
       </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7" t="s">
+      <c r="C86" s="12"/>
+      <c r="D86" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E86" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="G86" s="7" t="s">
+      <c r="G86" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="H86" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I86" s="6">
         <v>150</v>
       </c>
-      <c r="J86" s="8">
+      <c r="J86" s="7">
         <v>39</v>
       </c>
     </row>
@@ -8008,28 +8012,28 @@
       <c r="B87" t="s">
         <v>501</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D87" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="E87" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="F87" s="9" t="s">
+      <c r="F87" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="G87" s="9" t="s">
+      <c r="G87" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H87" s="9" t="s">
+      <c r="H87" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I87" s="9">
+      <c r="I87" s="8">
         <v>150</v>
       </c>
-      <c r="J87" s="10">
+      <c r="J87" s="9">
         <v>39</v>
       </c>
     </row>
@@ -8040,28 +8044,28 @@
       <c r="B88" t="s">
         <v>507</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="12" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>1379</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>1380</v>
-      </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="G88" s="7" t="s">
+      <c r="G88" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H88" s="7" t="s">
+      <c r="H88" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="I88" s="7">
+      <c r="I88" s="6">
         <v>19</v>
       </c>
-      <c r="J88" s="8">
+      <c r="J88" s="7">
         <v>21</v>
       </c>
     </row>
@@ -8072,28 +8076,28 @@
       <c r="B89" t="s">
         <v>511</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D89" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="E89" s="9" t="s">
+      <c r="E89" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="F89" s="9" t="s">
+      <c r="F89" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="G89" s="9" t="s">
+      <c r="G89" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H89" s="9" t="s">
+      <c r="H89" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I89" s="9">
+      <c r="I89" s="8">
         <v>19</v>
       </c>
-      <c r="J89" s="10">
+      <c r="J89" s="9">
         <v>29</v>
       </c>
     </row>
@@ -8104,26 +8108,26 @@
       <c r="B90" t="s">
         <v>517</v>
       </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7" t="s">
+      <c r="C90" s="12"/>
+      <c r="D90" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E90" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="G90" s="7" t="s">
+      <c r="G90" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H90" s="7" t="s">
+      <c r="H90" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I90" s="7">
+      <c r="I90" s="6">
         <v>19</v>
       </c>
-      <c r="J90" s="8">
+      <c r="J90" s="7">
         <v>29</v>
       </c>
     </row>
@@ -8134,26 +8138,26 @@
       <c r="B91" t="s">
         <v>521</v>
       </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9" t="s">
+      <c r="C91" s="13"/>
+      <c r="D91" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="F91" s="9" t="s">
+      <c r="F91" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="G91" s="9" t="s">
+      <c r="G91" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H91" s="9" t="s">
+      <c r="H91" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="I91" s="9">
+      <c r="I91" s="8">
         <v>9</v>
       </c>
-      <c r="J91" s="10">
+      <c r="J91" s="9">
         <v>57</v>
       </c>
     </row>
@@ -8164,28 +8168,28 @@
       <c r="B92" t="s">
         <v>526</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="G92" s="7" t="s">
+      <c r="G92" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H92" s="7" t="s">
+      <c r="H92" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="I92" s="7">
+      <c r="I92" s="6">
         <v>19</v>
       </c>
-      <c r="J92" s="8">
+      <c r="J92" s="7">
         <v>13</v>
       </c>
     </row>
@@ -8196,26 +8200,26 @@
       <c r="B93" t="s">
         <v>531</v>
       </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9" t="s">
+      <c r="C93" s="13"/>
+      <c r="D93" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="F93" s="9" t="s">
+      <c r="F93" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="G93" s="9" t="s">
+      <c r="G93" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H93" s="9" t="s">
+      <c r="H93" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I93" s="9">
+      <c r="I93" s="8">
         <v>150</v>
       </c>
-      <c r="J93" s="10">
+      <c r="J93" s="9">
         <v>154</v>
       </c>
     </row>
@@ -8226,28 +8230,28 @@
       <c r="B94" t="s">
         <v>535</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E94" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F94" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="G94" s="7" t="s">
+      <c r="G94" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H94" s="7" t="s">
+      <c r="H94" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="I94" s="7">
+      <c r="I94" s="6">
         <v>2</v>
       </c>
-      <c r="J94" s="8">
+      <c r="J94" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8258,28 +8262,28 @@
       <c r="B95" t="s">
         <v>541</v>
       </c>
-      <c r="C95" s="11" t="s">
-        <v>1381</v>
-      </c>
-      <c r="D95" s="9" t="s">
+      <c r="C95" s="13" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D95" s="8" t="s">
         <v>780</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F95" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="G95" s="9" t="s">
+      <c r="G95" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H95" s="9" t="s">
+      <c r="H95" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="I95" s="9">
+      <c r="I95" s="8">
         <v>2</v>
       </c>
-      <c r="J95" s="10">
+      <c r="J95" s="9">
         <v>11</v>
       </c>
     </row>
@@ -8290,28 +8294,28 @@
       <c r="B96" t="s">
         <v>545</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F96" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="G96" s="7" t="s">
+      <c r="G96" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H96" s="7" t="s">
+      <c r="H96" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I96" s="7">
+      <c r="I96" s="6">
         <v>19</v>
       </c>
-      <c r="J96" s="8">
+      <c r="J96" s="7">
         <v>5</v>
       </c>
     </row>
@@ -8322,28 +8326,28 @@
       <c r="B97" t="s">
         <v>550</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="13" t="s">
         <v>551</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E97" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="F97" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="G97" s="9" t="s">
+      <c r="G97" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H97" s="9" t="s">
+      <c r="H97" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I97" s="9">
+      <c r="I97" s="8">
         <v>19</v>
       </c>
-      <c r="J97" s="10">
+      <c r="J97" s="9">
         <v>29</v>
       </c>
     </row>
@@ -8354,20 +8358,20 @@
       <c r="B98" t="s">
         <v>556</v>
       </c>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7" t="s">
+      <c r="C98" s="12"/>
+      <c r="D98" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E98" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="8"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="7"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
@@ -8376,26 +8380,26 @@
       <c r="B99" t="s">
         <v>560</v>
       </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9" t="s">
+      <c r="C99" s="13"/>
+      <c r="D99" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E99" s="9" t="s">
+      <c r="E99" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="F99" s="9" t="s">
+      <c r="F99" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="G99" s="9" t="s">
+      <c r="G99" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H99" s="9" t="s">
+      <c r="H99" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I99" s="9">
+      <c r="I99" s="8">
         <v>150</v>
       </c>
-      <c r="J99" s="10">
+      <c r="J99" s="9">
         <v>39</v>
       </c>
     </row>
@@ -8406,28 +8410,28 @@
       <c r="B100" t="s">
         <v>564</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F100" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="G100" s="7" t="s">
+      <c r="G100" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H100" s="7" t="s">
+      <c r="H100" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="I100" s="7">
+      <c r="I100" s="6">
         <v>19</v>
       </c>
-      <c r="J100" s="8">
+      <c r="J100" s="7">
         <v>13</v>
       </c>
     </row>
@@ -8438,26 +8442,26 @@
       <c r="B101" t="s">
         <v>570</v>
       </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9" t="s">
+      <c r="C101" s="13"/>
+      <c r="D101" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="E101" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="F101" s="9" t="s">
+      <c r="F101" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="G101" s="9" t="s">
+      <c r="G101" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H101" s="9" t="s">
+      <c r="H101" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="I101" s="9">
+      <c r="I101" s="8">
         <v>142</v>
       </c>
-      <c r="J101" s="10">
+      <c r="J101" s="9">
         <v>30</v>
       </c>
     </row>
@@ -8468,28 +8472,28 @@
       <c r="B102" t="s">
         <v>574</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E102" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="F102" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="G102" s="7" t="s">
+      <c r="G102" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H102" s="7" t="s">
+      <c r="H102" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="I102" s="7">
+      <c r="I102" s="6">
         <v>150</v>
       </c>
-      <c r="J102" s="8">
+      <c r="J102" s="7">
         <v>151</v>
       </c>
     </row>
@@ -8500,28 +8504,28 @@
       <c r="B103" t="s">
         <v>580</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="D103" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="E103" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="F103" s="9" t="s">
+      <c r="F103" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="G103" s="9" t="s">
+      <c r="G103" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H103" s="9" t="s">
+      <c r="H103" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I103" s="9">
+      <c r="I103" s="8">
         <v>150</v>
       </c>
-      <c r="J103" s="10">
+      <c r="J103" s="9">
         <v>154</v>
       </c>
     </row>
@@ -8532,28 +8536,28 @@
       <c r="B104" t="s">
         <v>586</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E104" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F104" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="G104" s="7" t="s">
+      <c r="G104" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H104" s="7" t="s">
+      <c r="H104" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I104" s="7">
+      <c r="I104" s="6">
         <v>142</v>
       </c>
-      <c r="J104" s="8">
+      <c r="J104" s="7">
         <v>34</v>
       </c>
     </row>
@@ -8564,28 +8568,28 @@
       <c r="B105" t="s">
         <v>592</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="8" t="s">
         <v>594</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="E105" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="F105" s="9" t="s">
+      <c r="F105" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="G105" s="9" t="s">
+      <c r="G105" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H105" s="9" t="s">
+      <c r="H105" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="I105" s="9">
+      <c r="I105" s="8">
         <v>142</v>
       </c>
-      <c r="J105" s="10">
+      <c r="J105" s="9">
         <v>35</v>
       </c>
     </row>
@@ -8596,28 +8600,28 @@
       <c r="B106" t="s">
         <v>598</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="E106" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="F106" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="G106" s="7" t="s">
+      <c r="G106" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H106" s="7" t="s">
+      <c r="H106" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I106" s="7">
+      <c r="I106" s="6">
         <v>142</v>
       </c>
-      <c r="J106" s="8">
+      <c r="J106" s="7">
         <v>34</v>
       </c>
     </row>
@@ -8628,28 +8632,28 @@
       <c r="B107" t="s">
         <v>604</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="13" t="s">
         <v>605</v>
       </c>
-      <c r="D107" s="9" t="s">
+      <c r="D107" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="E107" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="F107" s="9" t="s">
+      <c r="F107" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="G107" s="9" t="s">
+      <c r="G107" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H107" s="9" t="s">
+      <c r="H107" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I107" s="9">
+      <c r="I107" s="8">
         <v>142</v>
       </c>
-      <c r="J107" s="10">
+      <c r="J107" s="9">
         <v>145</v>
       </c>
     </row>
@@ -8660,28 +8664,28 @@
       <c r="B108" t="s">
         <v>610</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="E108" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="F108" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="G108" s="7" t="s">
+      <c r="G108" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H108" s="7" t="s">
+      <c r="H108" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I108" s="7">
+      <c r="I108" s="6">
         <v>150</v>
       </c>
-      <c r="J108" s="8">
+      <c r="J108" s="7">
         <v>154</v>
       </c>
     </row>
@@ -8692,26 +8696,26 @@
       <c r="B109" t="s">
         <v>616</v>
       </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9" t="s">
+      <c r="C109" s="13"/>
+      <c r="D109" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="E109" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="F109" s="9" t="s">
+      <c r="F109" s="8" t="s">
         <v>618</v>
       </c>
-      <c r="G109" s="9" t="s">
+      <c r="G109" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H109" s="9" t="s">
+      <c r="H109" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I109" s="9">
+      <c r="I109" s="8">
         <v>150</v>
       </c>
-      <c r="J109" s="10">
+      <c r="J109" s="9">
         <v>154</v>
       </c>
     </row>
@@ -8722,28 +8726,28 @@
       <c r="B110" t="s">
         <v>620</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E110" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="F110" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="G110" s="7" t="s">
+      <c r="G110" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H110" s="7" t="s">
+      <c r="H110" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I110" s="7">
+      <c r="I110" s="6">
         <v>142</v>
       </c>
-      <c r="J110" s="8">
+      <c r="J110" s="7">
         <v>145</v>
       </c>
     </row>
@@ -8754,28 +8758,28 @@
       <c r="B111" t="s">
         <v>626</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C111" s="13" t="s">
         <v>627</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D111" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="E111" s="9" t="s">
+      <c r="E111" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="F111" s="9" t="s">
+      <c r="F111" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="G111" s="9" t="s">
+      <c r="G111" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H111" s="9" t="s">
+      <c r="H111" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I111" s="9">
+      <c r="I111" s="8">
         <v>150</v>
       </c>
-      <c r="J111" s="10">
+      <c r="J111" s="9">
         <v>39</v>
       </c>
     </row>
@@ -8786,28 +8790,28 @@
       <c r="B112" t="s">
         <v>632</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C112" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="E112" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="F112" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="G112" s="7" t="s">
+      <c r="G112" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H112" s="7" t="s">
+      <c r="H112" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I112" s="7">
+      <c r="I112" s="6">
         <v>19</v>
       </c>
-      <c r="J112" s="8">
+      <c r="J112" s="7">
         <v>29</v>
       </c>
     </row>
@@ -8818,28 +8822,28 @@
       <c r="B113" t="s">
         <v>638</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C113" s="13" t="s">
         <v>639</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="E113" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="F113" s="9" t="s">
+      <c r="F113" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="G113" s="9" t="s">
+      <c r="G113" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H113" s="9" t="s">
+      <c r="H113" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="I113" s="9">
+      <c r="I113" s="8">
         <v>142</v>
       </c>
-      <c r="J113" s="10">
+      <c r="J113" s="9">
         <v>30</v>
       </c>
     </row>
@@ -8850,26 +8854,26 @@
       <c r="B114" t="s">
         <v>644</v>
       </c>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7" t="s">
+      <c r="C114" s="12"/>
+      <c r="D114" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="E114" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="F114" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="G114" s="7" t="s">
+      <c r="G114" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H114" s="7" t="s">
+      <c r="H114" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I114" s="7">
+      <c r="I114" s="6">
         <v>150</v>
       </c>
-      <c r="J114" s="8">
+      <c r="J114" s="7">
         <v>154</v>
       </c>
     </row>
@@ -8880,28 +8884,28 @@
       <c r="B115" t="s">
         <v>648</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C115" s="13" t="s">
         <v>649</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D115" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="E115" s="9" t="s">
+      <c r="E115" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="F115" s="9" t="s">
+      <c r="F115" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="G115" s="9" t="s">
+      <c r="G115" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H115" s="9" t="s">
+      <c r="H115" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I115" s="9">
+      <c r="I115" s="8">
         <v>142</v>
       </c>
-      <c r="J115" s="10">
+      <c r="J115" s="9">
         <v>145</v>
       </c>
     </row>
@@ -8912,28 +8916,28 @@
       <c r="B116" t="s">
         <v>654</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="C116" s="12" t="s">
         <v>655</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="E116" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="F116" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="G116" s="7" t="s">
+      <c r="G116" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H116" s="7" t="s">
+      <c r="H116" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="I116" s="7">
+      <c r="I116" s="6">
         <v>142</v>
       </c>
-      <c r="J116" s="8">
+      <c r="J116" s="7">
         <v>143</v>
       </c>
     </row>
@@ -8944,28 +8948,28 @@
       <c r="B117" t="s">
         <v>661</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="D117" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="E117" s="9" t="s">
+      <c r="E117" s="8" t="s">
         <v>664</v>
       </c>
-      <c r="F117" s="9" t="s">
+      <c r="F117" s="8" t="s">
         <v>665</v>
       </c>
-      <c r="G117" s="9" t="s">
+      <c r="G117" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H117" s="9" t="s">
+      <c r="H117" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="I117" s="9">
+      <c r="I117" s="8">
         <v>2</v>
       </c>
-      <c r="J117" s="10">
+      <c r="J117" s="9">
         <v>14</v>
       </c>
     </row>
@@ -8976,28 +8980,28 @@
       <c r="B118" t="s">
         <v>667</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C118" s="12" t="s">
         <v>668</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D118" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="E118" s="7" t="s">
+      <c r="E118" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="F118" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="G118" s="7" t="s">
+      <c r="G118" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H118" s="7" t="s">
+      <c r="H118" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="I118" s="7">
+      <c r="I118" s="6">
         <v>9</v>
       </c>
-      <c r="J118" s="8">
+      <c r="J118" s="7">
         <v>57</v>
       </c>
     </row>
@@ -9008,28 +9012,28 @@
       <c r="B119" t="s">
         <v>673</v>
       </c>
-      <c r="C119" s="11" t="s">
-        <v>1382</v>
-      </c>
-      <c r="D119" s="9" t="s">
+      <c r="C119" s="13" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D119" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="E119" s="9" t="s">
+      <c r="E119" s="8" t="s">
         <v>675</v>
       </c>
-      <c r="F119" s="9" t="s">
+      <c r="F119" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="G119" s="9" t="s">
+      <c r="G119" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H119" s="9" t="s">
+      <c r="H119" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="I119" s="9">
+      <c r="I119" s="8">
         <v>142</v>
       </c>
-      <c r="J119" s="10">
+      <c r="J119" s="9">
         <v>30</v>
       </c>
     </row>
@@ -9040,28 +9044,28 @@
       <c r="B120" t="s">
         <v>678</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C120" s="12" t="s">
         <v>679</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="E120" s="7" t="s">
+      <c r="E120" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="F120" s="7" t="s">
+      <c r="F120" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="G120" s="7" t="s">
+      <c r="G120" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H120" s="7" t="s">
+      <c r="H120" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="I120" s="7">
+      <c r="I120" s="6">
         <v>142</v>
       </c>
-      <c r="J120" s="8">
+      <c r="J120" s="7">
         <v>30</v>
       </c>
     </row>
@@ -9072,28 +9076,28 @@
       <c r="B121" t="s">
         <v>683</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C121" s="13" t="s">
         <v>684</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="D121" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="E121" s="9" t="s">
+      <c r="E121" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="F121" s="9" t="s">
+      <c r="F121" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="G121" s="9" t="s">
+      <c r="G121" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H121" s="9" t="s">
+      <c r="H121" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I121" s="9">
+      <c r="I121" s="8">
         <v>142</v>
       </c>
-      <c r="J121" s="10">
+      <c r="J121" s="9">
         <v>145</v>
       </c>
     </row>
@@ -9104,28 +9108,28 @@
       <c r="B122" t="s">
         <v>689</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="C122" s="12" t="s">
         <v>690</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="E122" s="7" t="s">
+      <c r="E122" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="F122" s="7" t="s">
+      <c r="F122" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="G122" s="7" t="s">
+      <c r="G122" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H122" s="7" t="s">
+      <c r="H122" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="I122" s="7">
+      <c r="I122" s="6">
         <v>142</v>
       </c>
-      <c r="J122" s="8">
+      <c r="J122" s="7">
         <v>143</v>
       </c>
     </row>
@@ -9136,28 +9140,28 @@
       <c r="B123" t="s">
         <v>695</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C123" s="13" t="s">
         <v>696</v>
       </c>
-      <c r="D123" s="9" t="s">
+      <c r="D123" s="8" t="s">
         <v>697</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="E123" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="F123" s="9" t="s">
+      <c r="F123" s="8" t="s">
         <v>699</v>
       </c>
-      <c r="G123" s="9" t="s">
+      <c r="G123" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H123" s="9" t="s">
+      <c r="H123" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="I123" s="9">
+      <c r="I123" s="8">
         <v>142</v>
       </c>
-      <c r="J123" s="10">
+      <c r="J123" s="9">
         <v>35</v>
       </c>
     </row>
@@ -9168,28 +9172,28 @@
       <c r="B124" t="s">
         <v>701</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="C124" s="12" t="s">
         <v>702</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="E124" s="7" t="s">
+      <c r="E124" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="F124" s="7" t="s">
+      <c r="F124" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="G124" s="7" t="s">
+      <c r="G124" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H124" s="7" t="s">
+      <c r="H124" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I124" s="7">
+      <c r="I124" s="6">
         <v>150</v>
       </c>
-      <c r="J124" s="8">
+      <c r="J124" s="7">
         <v>154</v>
       </c>
     </row>
@@ -9200,28 +9204,28 @@
       <c r="B125" t="s">
         <v>707</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="C125" s="13" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D125" s="8" t="s">
         <v>1383</v>
       </c>
-      <c r="D125" s="9" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E125" s="9" t="s">
+      <c r="E125" s="8" t="s">
         <v>708</v>
       </c>
-      <c r="F125" s="9" t="s">
+      <c r="F125" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="G125" s="9" t="s">
+      <c r="G125" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H125" s="9" t="s">
+      <c r="H125" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I125" s="9">
+      <c r="I125" s="8">
         <v>142</v>
       </c>
-      <c r="J125" s="10">
+      <c r="J125" s="9">
         <v>145</v>
       </c>
     </row>
@@ -9232,28 +9236,28 @@
       <c r="B126" t="s">
         <v>711</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="C126" s="12" t="s">
         <v>712</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="E126" s="7" t="s">
+      <c r="E126" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="F126" s="7" t="s">
+      <c r="F126" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="G126" s="7" t="s">
+      <c r="G126" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H126" s="7" t="s">
+      <c r="H126" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="I126" s="7">
+      <c r="I126" s="6">
         <v>2</v>
       </c>
-      <c r="J126" s="8">
+      <c r="J126" s="7">
         <v>18</v>
       </c>
     </row>
@@ -9264,28 +9268,28 @@
       <c r="B127" t="s">
         <v>717</v>
       </c>
-      <c r="C127" s="11" t="s">
+      <c r="C127" s="13" t="s">
         <v>718</v>
       </c>
-      <c r="D127" s="9" t="s">
+      <c r="D127" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="E127" s="9" t="s">
+      <c r="E127" s="8" t="s">
         <v>720</v>
       </c>
-      <c r="F127" s="9" t="s">
+      <c r="F127" s="8" t="s">
         <v>721</v>
       </c>
-      <c r="G127" s="9" t="s">
+      <c r="G127" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H127" s="9" t="s">
+      <c r="H127" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="I127" s="9">
+      <c r="I127" s="8">
         <v>2</v>
       </c>
-      <c r="J127" s="10">
+      <c r="J127" s="9">
         <v>11</v>
       </c>
     </row>
@@ -9296,28 +9300,28 @@
       <c r="B128" t="s">
         <v>723</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="C128" s="12" t="s">
         <v>724</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="D128" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="E128" s="7" t="s">
+      <c r="E128" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="F128" s="7" t="s">
+      <c r="F128" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="G128" s="7" t="s">
+      <c r="G128" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H128" s="7" t="s">
+      <c r="H128" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I128" s="7">
+      <c r="I128" s="6">
         <v>2</v>
       </c>
-      <c r="J128" s="8">
+      <c r="J128" s="7">
         <v>15</v>
       </c>
     </row>
@@ -9328,28 +9332,28 @@
       <c r="B129" t="s">
         <v>729</v>
       </c>
-      <c r="C129" s="11" t="s">
+      <c r="C129" s="13" t="s">
         <v>730</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="D129" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E129" s="9" t="s">
+      <c r="E129" s="8" t="s">
         <v>731</v>
       </c>
-      <c r="F129" s="9" t="s">
+      <c r="F129" s="8" t="s">
         <v>732</v>
       </c>
-      <c r="G129" s="9" t="s">
+      <c r="G129" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H129" s="9" t="s">
+      <c r="H129" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="I129" s="9">
+      <c r="I129" s="8">
         <v>150</v>
       </c>
-      <c r="J129" s="10">
+      <c r="J129" s="9">
         <v>155</v>
       </c>
     </row>
@@ -9360,28 +9364,28 @@
       <c r="B130" t="s">
         <v>734</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="C130" s="12" t="s">
         <v>735</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="D130" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E130" s="7" t="s">
+      <c r="E130" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="F130" s="7" t="s">
+      <c r="F130" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="G130" s="7" t="s">
+      <c r="G130" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H130" s="7" t="s">
+      <c r="H130" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I130" s="7">
+      <c r="I130" s="6">
         <v>150</v>
       </c>
-      <c r="J130" s="8">
+      <c r="J130" s="7">
         <v>154</v>
       </c>
     </row>
@@ -9392,26 +9396,26 @@
       <c r="B131" t="s">
         <v>739</v>
       </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9" t="s">
+      <c r="C131" s="13"/>
+      <c r="D131" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="E131" s="9" t="s">
+      <c r="E131" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="F131" s="9" t="s">
+      <c r="F131" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="G131" s="9" t="s">
+      <c r="G131" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H131" s="9" t="s">
+      <c r="H131" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="I131" s="9">
+      <c r="I131" s="8">
         <v>150</v>
       </c>
-      <c r="J131" s="10">
+      <c r="J131" s="9">
         <v>155</v>
       </c>
     </row>
@@ -9422,28 +9426,28 @@
       <c r="B132" t="s">
         <v>745</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="C132" s="12" t="s">
         <v>740</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="E132" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="F132" s="7" t="s">
+      <c r="F132" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="G132" s="7" t="s">
+      <c r="G132" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H132" s="7" t="s">
+      <c r="H132" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="I132" s="7">
+      <c r="I132" s="6">
         <v>142</v>
       </c>
-      <c r="J132" s="8">
+      <c r="J132" s="7">
         <v>30</v>
       </c>
     </row>
@@ -9454,28 +9458,28 @@
       <c r="B133" t="s">
         <v>749</v>
       </c>
-      <c r="C133" s="11" t="s">
+      <c r="C133" s="13" t="s">
         <v>750</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="D133" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="E133" s="9" t="s">
+      <c r="E133" s="8" t="s">
         <v>752</v>
       </c>
-      <c r="F133" s="9" t="s">
+      <c r="F133" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G133" s="9" t="s">
+      <c r="G133" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H133" s="9" t="s">
+      <c r="H133" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I133" s="9">
+      <c r="I133" s="8">
         <v>150</v>
       </c>
-      <c r="J133" s="10">
+      <c r="J133" s="9">
         <v>39</v>
       </c>
     </row>
@@ -9486,28 +9490,28 @@
       <c r="B134" t="s">
         <v>755</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="C134" s="12" t="s">
         <v>756</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D134" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="E134" s="7" t="s">
+      <c r="E134" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="F134" s="7" t="s">
+      <c r="F134" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="G134" s="7" t="s">
+      <c r="G134" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H134" s="7" t="s">
+      <c r="H134" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="I134" s="7">
+      <c r="I134" s="6">
         <v>2</v>
       </c>
-      <c r="J134" s="8">
+      <c r="J134" s="7">
         <v>14</v>
       </c>
     </row>
@@ -9518,28 +9522,28 @@
       <c r="B135" t="s">
         <v>761</v>
       </c>
-      <c r="C135" s="11" t="s">
+      <c r="C135" s="13" t="s">
         <v>762</v>
       </c>
-      <c r="D135" s="9" t="s">
+      <c r="D135" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="E135" s="9" t="s">
+      <c r="E135" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="F135" s="9" t="s">
+      <c r="F135" s="8" t="s">
         <v>765</v>
       </c>
-      <c r="G135" s="9" t="s">
+      <c r="G135" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H135" s="9" t="s">
+      <c r="H135" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="I135" s="9">
+      <c r="I135" s="8">
         <v>2</v>
       </c>
-      <c r="J135" s="10">
+      <c r="J135" s="9">
         <v>14</v>
       </c>
     </row>
@@ -9550,28 +9554,28 @@
       <c r="B136" t="s">
         <v>767</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C136" s="12" t="s">
         <v>768</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D136" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="E136" s="7" t="s">
+      <c r="E136" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="F136" s="7" t="s">
+      <c r="F136" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="G136" s="7" t="s">
+      <c r="G136" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H136" s="7" t="s">
+      <c r="H136" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="I136" s="7">
+      <c r="I136" s="6">
         <v>142</v>
       </c>
-      <c r="J136" s="8">
+      <c r="J136" s="7">
         <v>35</v>
       </c>
     </row>
@@ -9582,28 +9586,28 @@
       <c r="B137" t="s">
         <v>773</v>
       </c>
-      <c r="C137" s="11" t="s">
+      <c r="C137" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="D137" s="9" t="s">
+      <c r="D137" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E137" s="9" t="s">
+      <c r="E137" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="F137" s="9" t="s">
+      <c r="F137" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="G137" s="9" t="s">
+      <c r="G137" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H137" s="9" t="s">
+      <c r="H137" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I137" s="9">
+      <c r="I137" s="8">
         <v>142</v>
       </c>
-      <c r="J137" s="10">
+      <c r="J137" s="9">
         <v>34</v>
       </c>
     </row>
@@ -9614,28 +9618,28 @@
       <c r="B138" t="s">
         <v>778</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="C138" s="12" t="s">
         <v>779</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D138" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="E138" s="7" t="s">
+      <c r="E138" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="F138" s="7" t="s">
+      <c r="F138" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="G138" s="7" t="s">
+      <c r="G138" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H138" s="7" t="s">
+      <c r="H138" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="I138" s="7">
+      <c r="I138" s="6">
         <v>2</v>
       </c>
-      <c r="J138" s="8">
+      <c r="J138" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9646,28 +9650,28 @@
       <c r="B139" t="s">
         <v>784</v>
       </c>
-      <c r="C139" s="11" t="s">
+      <c r="C139" s="13" t="s">
         <v>785</v>
       </c>
-      <c r="D139" s="9" t="s">
+      <c r="D139" s="8" t="s">
         <v>786</v>
       </c>
-      <c r="E139" s="9" t="s">
+      <c r="E139" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="F139" s="9" t="s">
+      <c r="F139" s="8" t="s">
         <v>788</v>
       </c>
-      <c r="G139" s="9" t="s">
+      <c r="G139" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H139" s="9" t="s">
+      <c r="H139" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I139" s="9">
+      <c r="I139" s="8">
         <v>150</v>
       </c>
-      <c r="J139" s="10">
+      <c r="J139" s="9">
         <v>39</v>
       </c>
     </row>
@@ -9678,28 +9682,28 @@
       <c r="B140" t="s">
         <v>790</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="C140" s="12" t="s">
         <v>791</v>
       </c>
-      <c r="D140" s="7" t="s">
+      <c r="D140" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="E140" s="7" t="s">
+      <c r="E140" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="F140" s="7" t="s">
+      <c r="F140" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="G140" s="7" t="s">
+      <c r="G140" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H140" s="7" t="s">
+      <c r="H140" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="I140" s="7">
+      <c r="I140" s="6">
         <v>9</v>
       </c>
-      <c r="J140" s="8">
+      <c r="J140" s="7">
         <v>57</v>
       </c>
     </row>
@@ -9710,26 +9714,26 @@
       <c r="B141" t="s">
         <v>796</v>
       </c>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9" t="s">
+      <c r="C141" s="13"/>
+      <c r="D141" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E141" s="9" t="s">
+      <c r="E141" s="8" t="s">
         <v>797</v>
       </c>
-      <c r="F141" s="9" t="s">
+      <c r="F141" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="G141" s="9" t="s">
+      <c r="G141" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H141" s="9" t="s">
+      <c r="H141" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I141" s="9">
+      <c r="I141" s="8">
         <v>19</v>
       </c>
-      <c r="J141" s="10">
+      <c r="J141" s="9">
         <v>29</v>
       </c>
     </row>
@@ -9740,28 +9744,28 @@
       <c r="B142" t="s">
         <v>800</v>
       </c>
-      <c r="C142" s="6" t="s">
+      <c r="C142" s="12" t="s">
         <v>801</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="D142" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="E142" s="7" t="s">
+      <c r="E142" s="6" t="s">
         <v>803</v>
       </c>
-      <c r="F142" s="7" t="s">
+      <c r="F142" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="G142" s="7" t="s">
+      <c r="G142" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H142" s="7" t="s">
+      <c r="H142" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="I142" s="7">
+      <c r="I142" s="6">
         <v>2</v>
       </c>
-      <c r="J142" s="8">
+      <c r="J142" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9772,28 +9776,28 @@
       <c r="B143" t="s">
         <v>806</v>
       </c>
-      <c r="C143" s="11" t="s">
+      <c r="C143" s="13" t="s">
         <v>807</v>
       </c>
-      <c r="D143" s="9" t="s">
+      <c r="D143" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="E143" s="9" t="s">
+      <c r="E143" s="8" t="s">
         <v>809</v>
       </c>
-      <c r="F143" s="9" t="s">
+      <c r="F143" s="8" t="s">
         <v>810</v>
       </c>
-      <c r="G143" s="9" t="s">
+      <c r="G143" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H143" s="9" t="s">
+      <c r="H143" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="I143" s="9">
+      <c r="I143" s="8">
         <v>2</v>
       </c>
-      <c r="J143" s="10">
+      <c r="J143" s="9">
         <v>14</v>
       </c>
     </row>
@@ -9804,26 +9808,26 @@
       <c r="B144" t="s">
         <v>812</v>
       </c>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7" t="s">
+      <c r="C144" s="12"/>
+      <c r="D144" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E144" s="7" t="s">
+      <c r="E144" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="F144" s="7" t="s">
+      <c r="F144" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="G144" s="7" t="s">
+      <c r="G144" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H144" s="7" t="s">
+      <c r="H144" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="I144" s="7">
+      <c r="I144" s="6">
         <v>2</v>
       </c>
-      <c r="J144" s="8">
+      <c r="J144" s="7">
         <v>14</v>
       </c>
     </row>
@@ -9834,28 +9838,28 @@
       <c r="B145" t="s">
         <v>816</v>
       </c>
-      <c r="C145" s="11" t="s">
+      <c r="C145" s="13" t="s">
         <v>817</v>
       </c>
-      <c r="D145" s="9" t="s">
+      <c r="D145" s="8" t="s">
         <v>818</v>
       </c>
-      <c r="E145" s="9" t="s">
+      <c r="E145" s="8" t="s">
         <v>819</v>
       </c>
-      <c r="F145" s="9" t="s">
+      <c r="F145" s="8" t="s">
         <v>820</v>
       </c>
-      <c r="G145" s="9" t="s">
+      <c r="G145" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H145" s="9" t="s">
+      <c r="H145" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="I145" s="9">
+      <c r="I145" s="8">
         <v>19</v>
       </c>
-      <c r="J145" s="10">
+      <c r="J145" s="9">
         <v>13</v>
       </c>
     </row>
@@ -9866,28 +9870,28 @@
       <c r="B146" t="s">
         <v>822</v>
       </c>
-      <c r="C146" s="6" t="s">
+      <c r="C146" s="12" t="s">
         <v>823</v>
       </c>
-      <c r="D146" s="7" t="s">
+      <c r="D146" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="E146" s="7" t="s">
+      <c r="E146" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="F146" s="7" t="s">
+      <c r="F146" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="G146" s="7" t="s">
+      <c r="G146" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H146" s="7" t="s">
+      <c r="H146" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="I146" s="7">
+      <c r="I146" s="6">
         <v>9</v>
       </c>
-      <c r="J146" s="8">
+      <c r="J146" s="7">
         <v>57</v>
       </c>
     </row>
@@ -9898,28 +9902,28 @@
       <c r="B147" t="s">
         <v>828</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="C147" s="13" t="s">
         <v>829</v>
       </c>
-      <c r="D147" s="9" t="s">
+      <c r="D147" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="E147" s="9" t="s">
+      <c r="E147" s="8" t="s">
         <v>831</v>
       </c>
-      <c r="F147" s="9" t="s">
+      <c r="F147" s="8" t="s">
         <v>832</v>
       </c>
-      <c r="G147" s="9" t="s">
+      <c r="G147" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H147" s="9" t="s">
+      <c r="H147" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="I147" s="9">
+      <c r="I147" s="8">
         <v>150</v>
       </c>
-      <c r="J147" s="10">
+      <c r="J147" s="9">
         <v>151</v>
       </c>
     </row>
@@ -9930,26 +9934,26 @@
       <c r="B148" t="s">
         <v>834</v>
       </c>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7" t="s">
+      <c r="C148" s="12"/>
+      <c r="D148" s="6" t="s">
         <v>835</v>
       </c>
-      <c r="E148" s="7" t="s">
+      <c r="E148" s="6" t="s">
         <v>836</v>
       </c>
-      <c r="F148" s="7" t="s">
+      <c r="F148" s="6" t="s">
         <v>837</v>
       </c>
-      <c r="G148" s="7" t="s">
+      <c r="G148" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H148" s="7" t="s">
+      <c r="H148" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I148" s="7">
+      <c r="I148" s="6">
         <v>150</v>
       </c>
-      <c r="J148" s="8">
+      <c r="J148" s="7">
         <v>155</v>
       </c>
     </row>
@@ -9960,28 +9964,28 @@
       <c r="B149" t="s">
         <v>839</v>
       </c>
-      <c r="C149" s="11" t="s">
+      <c r="C149" s="13" t="s">
         <v>840</v>
       </c>
-      <c r="D149" s="9" t="s">
+      <c r="D149" s="8" t="s">
         <v>841</v>
       </c>
-      <c r="E149" s="9" t="s">
+      <c r="E149" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="F149" s="9" t="s">
+      <c r="F149" s="8" t="s">
         <v>843</v>
       </c>
-      <c r="G149" s="9" t="s">
+      <c r="G149" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H149" s="9" t="s">
+      <c r="H149" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="I149" s="9">
+      <c r="I149" s="8">
         <v>142</v>
       </c>
-      <c r="J149" s="10">
+      <c r="J149" s="9">
         <v>30</v>
       </c>
     </row>
@@ -9992,28 +9996,28 @@
       <c r="B150" t="s">
         <v>845</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="C150" s="12" t="s">
         <v>846</v>
       </c>
-      <c r="D150" s="7" t="s">
+      <c r="D150" s="6" t="s">
         <v>847</v>
       </c>
-      <c r="E150" s="7" t="s">
+      <c r="E150" s="6" t="s">
         <v>848</v>
       </c>
-      <c r="F150" s="7" t="s">
+      <c r="F150" s="6" t="s">
         <v>849</v>
       </c>
-      <c r="G150" s="7" t="s">
+      <c r="G150" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H150" s="7" t="s">
+      <c r="H150" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I150" s="7">
+      <c r="I150" s="6">
         <v>150</v>
       </c>
-      <c r="J150" s="8">
+      <c r="J150" s="7">
         <v>39</v>
       </c>
     </row>
@@ -10024,26 +10028,26 @@
       <c r="B151" t="s">
         <v>851</v>
       </c>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9" t="s">
+      <c r="C151" s="13"/>
+      <c r="D151" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E151" s="9" t="s">
+      <c r="E151" s="8" t="s">
         <v>852</v>
       </c>
-      <c r="F151" s="9" t="s">
+      <c r="F151" s="8" t="s">
         <v>853</v>
       </c>
-      <c r="G151" s="9" t="s">
+      <c r="G151" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H151" s="9" t="s">
+      <c r="H151" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I151" s="9">
+      <c r="I151" s="8">
         <v>19</v>
       </c>
-      <c r="J151" s="10">
+      <c r="J151" s="9">
         <v>29</v>
       </c>
     </row>
@@ -10054,28 +10058,28 @@
       <c r="B152" t="s">
         <v>855</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C152" s="12" t="s">
         <v>856</v>
       </c>
-      <c r="D152" s="7" t="s">
+      <c r="D152" s="6" t="s">
         <v>835</v>
       </c>
-      <c r="E152" s="7" t="s">
+      <c r="E152" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="F152" s="7" t="s">
+      <c r="F152" s="6" t="s">
         <v>858</v>
       </c>
-      <c r="G152" s="7" t="s">
+      <c r="G152" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H152" s="7" t="s">
+      <c r="H152" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I152" s="7">
+      <c r="I152" s="6">
         <v>2</v>
       </c>
-      <c r="J152" s="8">
+      <c r="J152" s="7">
         <v>15</v>
       </c>
     </row>
@@ -10086,28 +10090,28 @@
       <c r="B153" t="s">
         <v>860</v>
       </c>
-      <c r="C153" s="11" t="s">
+      <c r="C153" s="13" t="s">
         <v>861</v>
       </c>
-      <c r="D153" s="9" t="s">
+      <c r="D153" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="E153" s="9" t="s">
+      <c r="E153" s="8" t="s">
         <v>862</v>
       </c>
-      <c r="F153" s="9" t="s">
+      <c r="F153" s="8" t="s">
         <v>863</v>
       </c>
-      <c r="G153" s="9" t="s">
+      <c r="G153" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H153" s="9" t="s">
+      <c r="H153" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="I153" s="9">
+      <c r="I153" s="8">
         <v>2</v>
       </c>
-      <c r="J153" s="10">
+      <c r="J153" s="9">
         <v>14</v>
       </c>
     </row>
@@ -10118,28 +10122,28 @@
       <c r="B154" t="s">
         <v>865</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="C154" s="12" t="s">
         <v>866</v>
       </c>
-      <c r="D154" s="7" t="s">
+      <c r="D154" s="6" t="s">
         <v>867</v>
       </c>
-      <c r="E154" s="7" t="s">
+      <c r="E154" s="6" t="s">
         <v>868</v>
       </c>
-      <c r="F154" s="7" t="s">
+      <c r="F154" s="6" t="s">
         <v>869</v>
       </c>
-      <c r="G154" s="7" t="s">
+      <c r="G154" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H154" s="7" t="s">
+      <c r="H154" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="I154" s="7">
+      <c r="I154" s="6">
         <v>142</v>
       </c>
-      <c r="J154" s="8">
+      <c r="J154" s="7">
         <v>35</v>
       </c>
     </row>
@@ -10150,28 +10154,28 @@
       <c r="B155" t="s">
         <v>871</v>
       </c>
-      <c r="C155" s="11" t="s">
+      <c r="C155" s="13" t="s">
         <v>872</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="D155" s="8" t="s">
         <v>873</v>
       </c>
-      <c r="E155" s="9" t="s">
+      <c r="E155" s="8" t="s">
         <v>874</v>
       </c>
-      <c r="F155" s="9" t="s">
+      <c r="F155" s="8" t="s">
         <v>875</v>
       </c>
-      <c r="G155" s="9" t="s">
+      <c r="G155" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H155" s="9" t="s">
+      <c r="H155" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="I155" s="9">
+      <c r="I155" s="8">
         <v>2</v>
       </c>
-      <c r="J155" s="10">
+      <c r="J155" s="9">
         <v>18</v>
       </c>
     </row>
@@ -10182,28 +10186,28 @@
       <c r="B156" t="s">
         <v>877</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C156" s="12" t="s">
         <v>878</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="D156" s="6" t="s">
         <v>879</v>
       </c>
-      <c r="E156" s="7" t="s">
+      <c r="E156" s="6" t="s">
         <v>880</v>
       </c>
-      <c r="F156" s="7" t="s">
+      <c r="F156" s="6" t="s">
         <v>881</v>
       </c>
-      <c r="G156" s="7" t="s">
+      <c r="G156" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H156" s="7" t="s">
+      <c r="H156" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="I156" s="7">
+      <c r="I156" s="6">
         <v>9</v>
       </c>
-      <c r="J156" s="8">
+      <c r="J156" s="7">
         <v>57</v>
       </c>
     </row>
@@ -10214,28 +10218,28 @@
       <c r="B157" t="s">
         <v>883</v>
       </c>
-      <c r="C157" s="11" t="s">
+      <c r="C157" s="13" t="s">
         <v>884</v>
       </c>
-      <c r="D157" s="9" t="s">
+      <c r="D157" s="8" t="s">
         <v>885</v>
       </c>
-      <c r="E157" s="9" t="s">
+      <c r="E157" s="8" t="s">
         <v>886</v>
       </c>
-      <c r="F157" s="9" t="s">
+      <c r="F157" s="8" t="s">
         <v>887</v>
       </c>
-      <c r="G157" s="9" t="s">
+      <c r="G157" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H157" s="9" t="s">
+      <c r="H157" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I157" s="9">
+      <c r="I157" s="8">
         <v>142</v>
       </c>
-      <c r="J157" s="10">
+      <c r="J157" s="9">
         <v>34</v>
       </c>
     </row>
@@ -10246,28 +10250,28 @@
       <c r="B158" t="s">
         <v>889</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C158" s="12" t="s">
         <v>890</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="D158" s="6" t="s">
         <v>891</v>
       </c>
-      <c r="E158" s="7" t="s">
+      <c r="E158" s="6" t="s">
         <v>892</v>
       </c>
-      <c r="F158" s="7" t="s">
+      <c r="F158" s="6" t="s">
         <v>893</v>
       </c>
-      <c r="G158" s="7" t="s">
+      <c r="G158" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H158" s="7" t="s">
+      <c r="H158" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I158" s="7">
+      <c r="I158" s="6">
         <v>150</v>
       </c>
-      <c r="J158" s="8">
+      <c r="J158" s="7">
         <v>155</v>
       </c>
     </row>
@@ -10278,26 +10282,26 @@
       <c r="B159" t="s">
         <v>895</v>
       </c>
-      <c r="C159" s="9"/>
-      <c r="D159" s="9" t="s">
+      <c r="C159" s="13"/>
+      <c r="D159" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E159" s="9" t="s">
+      <c r="E159" s="8" t="s">
         <v>896</v>
       </c>
-      <c r="F159" s="9" t="s">
+      <c r="F159" s="8" t="s">
         <v>897</v>
       </c>
-      <c r="G159" s="9" t="s">
+      <c r="G159" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H159" s="9" t="s">
+      <c r="H159" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="I159" s="9">
+      <c r="I159" s="8">
         <v>9</v>
       </c>
-      <c r="J159" s="10">
+      <c r="J159" s="9">
         <v>54</v>
       </c>
     </row>
@@ -10308,28 +10312,28 @@
       <c r="B160" t="s">
         <v>899</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="C160" s="12" t="s">
         <v>900</v>
       </c>
-      <c r="D160" s="7" t="s">
+      <c r="D160" s="6" t="s">
         <v>901</v>
       </c>
-      <c r="E160" s="7" t="s">
+      <c r="E160" s="6" t="s">
         <v>902</v>
       </c>
-      <c r="F160" s="7" t="s">
+      <c r="F160" s="6" t="s">
         <v>903</v>
       </c>
-      <c r="G160" s="7" t="s">
+      <c r="G160" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H160" s="7" t="s">
+      <c r="H160" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I160" s="7">
+      <c r="I160" s="6">
         <v>9</v>
       </c>
-      <c r="J160" s="8">
+      <c r="J160" s="7">
         <v>53</v>
       </c>
     </row>
@@ -10340,28 +10344,28 @@
       <c r="B161" t="s">
         <v>905</v>
       </c>
-      <c r="C161" s="11" t="s">
+      <c r="C161" s="13" t="s">
         <v>906</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D161" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E161" s="9" t="s">
+      <c r="E161" s="8" t="s">
         <v>907</v>
       </c>
-      <c r="F161" s="9" t="s">
+      <c r="F161" s="8" t="s">
         <v>908</v>
       </c>
-      <c r="G161" s="9" t="s">
+      <c r="G161" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H161" s="9" t="s">
+      <c r="H161" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="I161" s="9">
+      <c r="I161" s="8">
         <v>19</v>
       </c>
-      <c r="J161" s="10">
+      <c r="J161" s="9">
         <v>13</v>
       </c>
     </row>
@@ -10372,28 +10376,28 @@
       <c r="B162" t="s">
         <v>910</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="C162" s="12" t="s">
         <v>911</v>
       </c>
-      <c r="D162" s="7" t="s">
+      <c r="D162" s="6" t="s">
         <v>912</v>
       </c>
-      <c r="E162" s="7" t="s">
+      <c r="E162" s="6" t="s">
         <v>913</v>
       </c>
-      <c r="F162" s="7" t="s">
+      <c r="F162" s="6" t="s">
         <v>914</v>
       </c>
-      <c r="G162" s="7" t="s">
+      <c r="G162" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H162" s="7" t="s">
+      <c r="H162" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="I162" s="7">
+      <c r="I162" s="6">
         <v>2</v>
       </c>
-      <c r="J162" s="8">
+      <c r="J162" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10404,28 +10408,28 @@
       <c r="B163" t="s">
         <v>916</v>
       </c>
-      <c r="C163" s="11" t="s">
+      <c r="C163" s="13" t="s">
         <v>917</v>
       </c>
-      <c r="D163" s="9" t="s">
+      <c r="D163" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="E163" s="9" t="s">
+      <c r="E163" s="8" t="s">
         <v>918</v>
       </c>
-      <c r="F163" s="9" t="s">
+      <c r="F163" s="8" t="s">
         <v>919</v>
       </c>
-      <c r="G163" s="9" t="s">
+      <c r="G163" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H163" s="9" t="s">
+      <c r="H163" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="I163" s="9">
+      <c r="I163" s="8">
         <v>2</v>
       </c>
-      <c r="J163" s="10">
+      <c r="J163" s="9">
         <v>11</v>
       </c>
     </row>
@@ -10436,26 +10440,26 @@
       <c r="B164" t="s">
         <v>921</v>
       </c>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7" t="s">
+      <c r="C164" s="12"/>
+      <c r="D164" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E164" s="7" t="s">
+      <c r="E164" s="6" t="s">
         <v>922</v>
       </c>
-      <c r="F164" s="7" t="s">
+      <c r="F164" s="6" t="s">
         <v>923</v>
       </c>
-      <c r="G164" s="7" t="s">
+      <c r="G164" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H164" s="7" t="s">
+      <c r="H164" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I164" s="7">
+      <c r="I164" s="6">
         <v>9</v>
       </c>
-      <c r="J164" s="8">
+      <c r="J164" s="7">
         <v>61</v>
       </c>
     </row>
@@ -10466,26 +10470,26 @@
       <c r="B165" t="s">
         <v>925</v>
       </c>
-      <c r="C165" s="9"/>
-      <c r="D165" s="9" t="s">
+      <c r="C165" s="13"/>
+      <c r="D165" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E165" s="9" t="s">
+      <c r="E165" s="8" t="s">
         <v>926</v>
       </c>
-      <c r="F165" s="9" t="s">
+      <c r="F165" s="8" t="s">
         <v>927</v>
       </c>
-      <c r="G165" s="9" t="s">
+      <c r="G165" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H165" s="9" t="s">
+      <c r="H165" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="I165" s="9">
+      <c r="I165" s="8">
         <v>9</v>
       </c>
-      <c r="J165" s="10">
+      <c r="J165" s="9">
         <v>53</v>
       </c>
     </row>
@@ -10496,26 +10500,26 @@
       <c r="B166" t="s">
         <v>929</v>
       </c>
-      <c r="C166" s="7"/>
-      <c r="D166" s="7" t="s">
+      <c r="C166" s="12"/>
+      <c r="D166" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E166" s="7" t="s">
+      <c r="E166" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="F166" s="7" t="s">
+      <c r="F166" s="6" t="s">
         <v>931</v>
       </c>
-      <c r="G166" s="7" t="s">
+      <c r="G166" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H166" s="7" t="s">
+      <c r="H166" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="I166" s="7">
+      <c r="I166" s="6">
         <v>9</v>
       </c>
-      <c r="J166" s="8">
+      <c r="J166" s="7">
         <v>57</v>
       </c>
     </row>
@@ -10526,28 +10530,28 @@
       <c r="B167" t="s">
         <v>933</v>
       </c>
-      <c r="C167" s="11" t="s">
+      <c r="C167" s="13" t="s">
         <v>934</v>
       </c>
-      <c r="D167" s="9" t="s">
+      <c r="D167" s="8" t="s">
         <v>935</v>
       </c>
-      <c r="E167" s="9" t="s">
+      <c r="E167" s="8" t="s">
         <v>936</v>
       </c>
-      <c r="F167" s="9" t="s">
+      <c r="F167" s="8" t="s">
         <v>937</v>
       </c>
-      <c r="G167" s="9" t="s">
+      <c r="G167" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H167" s="9" t="s">
+      <c r="H167" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I167" s="9">
+      <c r="I167" s="8">
         <v>150</v>
       </c>
-      <c r="J167" s="10">
+      <c r="J167" s="9">
         <v>154</v>
       </c>
     </row>
@@ -10558,28 +10562,28 @@
       <c r="B168" t="s">
         <v>939</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C168" s="12" t="s">
         <v>940</v>
       </c>
-      <c r="D168" s="7" t="s">
+      <c r="D168" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="E168" s="7" t="s">
+      <c r="E168" s="6" t="s">
         <v>941</v>
       </c>
-      <c r="F168" s="7" t="s">
+      <c r="F168" s="6" t="s">
         <v>942</v>
       </c>
-      <c r="G168" s="7" t="s">
+      <c r="G168" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H168" s="7" t="s">
+      <c r="H168" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I168" s="7">
+      <c r="I168" s="6">
         <v>142</v>
       </c>
-      <c r="J168" s="8">
+      <c r="J168" s="7">
         <v>145</v>
       </c>
     </row>
@@ -10590,28 +10594,28 @@
       <c r="B169" t="s">
         <v>944</v>
       </c>
-      <c r="C169" s="11" t="s">
+      <c r="C169" s="13" t="s">
         <v>945</v>
       </c>
-      <c r="D169" s="9" t="s">
+      <c r="D169" s="8" t="s">
         <v>946</v>
       </c>
-      <c r="E169" s="9" t="s">
+      <c r="E169" s="8" t="s">
         <v>947</v>
       </c>
-      <c r="F169" s="9" t="s">
+      <c r="F169" s="8" t="s">
         <v>948</v>
       </c>
-      <c r="G169" s="9" t="s">
+      <c r="G169" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H169" s="9" t="s">
+      <c r="H169" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I169" s="9">
+      <c r="I169" s="8">
         <v>142</v>
       </c>
-      <c r="J169" s="10">
+      <c r="J169" s="9">
         <v>34</v>
       </c>
     </row>
@@ -10622,28 +10626,28 @@
       <c r="B170" t="s">
         <v>950</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="C170" s="12" t="s">
         <v>951</v>
       </c>
-      <c r="D170" s="7" t="s">
+      <c r="D170" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="E170" s="7" t="s">
+      <c r="E170" s="6" t="s">
         <v>952</v>
       </c>
-      <c r="F170" s="7" t="s">
+      <c r="F170" s="6" t="s">
         <v>953</v>
       </c>
-      <c r="G170" s="7" t="s">
+      <c r="G170" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H170" s="7" t="s">
+      <c r="H170" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="I170" s="7">
+      <c r="I170" s="6">
         <v>9</v>
       </c>
-      <c r="J170" s="8">
+      <c r="J170" s="7">
         <v>57</v>
       </c>
     </row>
@@ -10654,28 +10658,28 @@
       <c r="B171" t="s">
         <v>955</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="C171" s="13" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D171" s="8" t="s">
         <v>1385</v>
       </c>
-      <c r="D171" s="9" t="s">
-        <v>1386</v>
-      </c>
-      <c r="E171" s="9" t="s">
+      <c r="E171" s="8" t="s">
         <v>956</v>
       </c>
-      <c r="F171" s="9" t="s">
+      <c r="F171" s="8" t="s">
         <v>957</v>
       </c>
-      <c r="G171" s="9" t="s">
+      <c r="G171" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H171" s="9" t="s">
+      <c r="H171" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I171" s="9">
+      <c r="I171" s="8">
         <v>142</v>
       </c>
-      <c r="J171" s="10">
+      <c r="J171" s="9">
         <v>145</v>
       </c>
     </row>
@@ -10686,28 +10690,28 @@
       <c r="B172" t="s">
         <v>959</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="C172" s="12" t="s">
         <v>960</v>
       </c>
-      <c r="D172" s="7" t="s">
+      <c r="D172" s="6" t="s">
         <v>961</v>
       </c>
-      <c r="E172" s="7" t="s">
+      <c r="E172" s="6" t="s">
         <v>962</v>
       </c>
-      <c r="F172" s="7" t="s">
+      <c r="F172" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="G172" s="7" t="s">
+      <c r="G172" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H172" s="7" t="s">
+      <c r="H172" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="I172" s="7">
+      <c r="I172" s="6">
         <v>19</v>
       </c>
-      <c r="J172" s="8">
+      <c r="J172" s="7">
         <v>13</v>
       </c>
     </row>
@@ -10718,28 +10722,28 @@
       <c r="B173" t="s">
         <v>965</v>
       </c>
-      <c r="C173" s="11" t="s">
+      <c r="C173" s="13" t="s">
         <v>966</v>
       </c>
-      <c r="D173" s="9" t="s">
+      <c r="D173" s="8" t="s">
         <v>967</v>
       </c>
-      <c r="E173" s="9" t="s">
+      <c r="E173" s="8" t="s">
         <v>968</v>
       </c>
-      <c r="F173" s="9" t="s">
+      <c r="F173" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="G173" s="9" t="s">
+      <c r="G173" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H173" s="9" t="s">
+      <c r="H173" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="I173" s="9">
+      <c r="I173" s="8">
         <v>9</v>
       </c>
-      <c r="J173" s="10">
+      <c r="J173" s="9">
         <v>54</v>
       </c>
     </row>
@@ -10750,28 +10754,28 @@
       <c r="B174" t="s">
         <v>971</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C174" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="D174" s="7" t="s">
+      <c r="D174" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E174" s="7" t="s">
+      <c r="E174" s="6" t="s">
         <v>973</v>
       </c>
-      <c r="F174" s="7" t="s">
+      <c r="F174" s="6" t="s">
         <v>974</v>
       </c>
-      <c r="G174" s="7" t="s">
+      <c r="G174" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H174" s="7" t="s">
+      <c r="H174" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I174" s="7">
+      <c r="I174" s="6">
         <v>19</v>
       </c>
-      <c r="J174" s="8">
+      <c r="J174" s="7">
         <v>5</v>
       </c>
     </row>
@@ -10782,28 +10786,28 @@
       <c r="B175" t="s">
         <v>976</v>
       </c>
-      <c r="C175" s="11" t="s">
+      <c r="C175" s="13" t="s">
         <v>977</v>
       </c>
-      <c r="D175" s="9" t="s">
+      <c r="D175" s="8" t="s">
         <v>978</v>
       </c>
-      <c r="E175" s="9" t="s">
+      <c r="E175" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="F175" s="9" t="s">
+      <c r="F175" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="G175" s="9" t="s">
+      <c r="G175" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H175" s="9" t="s">
+      <c r="H175" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I175" s="9">
+      <c r="I175" s="8">
         <v>19</v>
       </c>
-      <c r="J175" s="10">
+      <c r="J175" s="9">
         <v>5</v>
       </c>
     </row>
@@ -10814,28 +10818,28 @@
       <c r="B176" t="s">
         <v>982</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="C176" s="12" t="s">
         <v>983</v>
       </c>
-      <c r="D176" s="7" t="s">
+      <c r="D176" s="6" t="s">
         <v>984</v>
       </c>
-      <c r="E176" s="7" t="s">
+      <c r="E176" s="6" t="s">
         <v>985</v>
       </c>
-      <c r="F176" s="7" t="s">
+      <c r="F176" s="6" t="s">
         <v>986</v>
       </c>
-      <c r="G176" s="7" t="s">
+      <c r="G176" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H176" s="7" t="s">
+      <c r="H176" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="I176" s="7">
+      <c r="I176" s="6">
         <v>142</v>
       </c>
-      <c r="J176" s="8">
+      <c r="J176" s="7">
         <v>35</v>
       </c>
     </row>
@@ -10846,26 +10850,26 @@
       <c r="B177" t="s">
         <v>988</v>
       </c>
-      <c r="C177" s="9"/>
-      <c r="D177" s="9" t="s">
+      <c r="C177" s="13"/>
+      <c r="D177" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E177" s="9" t="s">
+      <c r="E177" s="8" t="s">
         <v>989</v>
       </c>
-      <c r="F177" s="9" t="s">
+      <c r="F177" s="8" t="s">
         <v>990</v>
       </c>
-      <c r="G177" s="9" t="s">
+      <c r="G177" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H177" s="9" t="s">
+      <c r="H177" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I177" s="9">
+      <c r="I177" s="8">
         <v>9</v>
       </c>
-      <c r="J177" s="10">
+      <c r="J177" s="9">
         <v>61</v>
       </c>
     </row>
@@ -10876,28 +10880,28 @@
       <c r="B178" t="s">
         <v>992</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="C178" s="12" t="s">
         <v>993</v>
       </c>
-      <c r="D178" s="7" t="s">
+      <c r="D178" s="6" t="s">
         <v>994</v>
       </c>
-      <c r="E178" s="7" t="s">
+      <c r="E178" s="6" t="s">
         <v>995</v>
       </c>
-      <c r="F178" s="7" t="s">
+      <c r="F178" s="6" t="s">
         <v>996</v>
       </c>
-      <c r="G178" s="7" t="s">
+      <c r="G178" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H178" s="7" t="s">
+      <c r="H178" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="I178" s="7">
+      <c r="I178" s="6">
         <v>150</v>
       </c>
-      <c r="J178" s="8">
+      <c r="J178" s="7">
         <v>151</v>
       </c>
     </row>
@@ -10908,28 +10912,28 @@
       <c r="B179" t="s">
         <v>998</v>
       </c>
-      <c r="C179" s="11" t="s">
+      <c r="C179" s="13" t="s">
         <v>999</v>
       </c>
-      <c r="D179" s="9" t="s">
+      <c r="D179" s="8" t="s">
         <v>1000</v>
       </c>
-      <c r="E179" s="9" t="s">
+      <c r="E179" s="8" t="s">
         <v>1001</v>
       </c>
-      <c r="F179" s="9" t="s">
+      <c r="F179" s="8" t="s">
         <v>1002</v>
       </c>
-      <c r="G179" s="9" t="s">
+      <c r="G179" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H179" s="9" t="s">
+      <c r="H179" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I179" s="9">
+      <c r="I179" s="8">
         <v>150</v>
       </c>
-      <c r="J179" s="10">
+      <c r="J179" s="9">
         <v>39</v>
       </c>
     </row>
@@ -10940,26 +10944,26 @@
       <c r="B180" t="s">
         <v>1004</v>
       </c>
-      <c r="C180" s="7"/>
-      <c r="D180" s="7" t="s">
+      <c r="C180" s="12"/>
+      <c r="D180" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E180" s="7" t="s">
+      <c r="E180" s="6" t="s">
         <v>1005</v>
       </c>
-      <c r="F180" s="7" t="s">
+      <c r="F180" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="G180" s="7" t="s">
+      <c r="G180" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H180" s="7" t="s">
+      <c r="H180" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I180" s="7">
+      <c r="I180" s="6">
         <v>19</v>
       </c>
-      <c r="J180" s="8">
+      <c r="J180" s="7">
         <v>29</v>
       </c>
     </row>
@@ -10970,28 +10974,28 @@
       <c r="B181" t="s">
         <v>1008</v>
       </c>
-      <c r="C181" s="11" t="s">
+      <c r="C181" s="13" t="s">
         <v>1009</v>
       </c>
-      <c r="D181" s="9" t="s">
+      <c r="D181" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="E181" s="9" t="s">
+      <c r="E181" s="8" t="s">
         <v>1010</v>
       </c>
-      <c r="F181" s="9" t="s">
+      <c r="F181" s="8" t="s">
         <v>1011</v>
       </c>
-      <c r="G181" s="9" t="s">
+      <c r="G181" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H181" s="9" t="s">
+      <c r="H181" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I181" s="9">
+      <c r="I181" s="8">
         <v>142</v>
       </c>
-      <c r="J181" s="10">
+      <c r="J181" s="9">
         <v>145</v>
       </c>
     </row>
@@ -11002,26 +11006,26 @@
       <c r="B182" t="s">
         <v>1013</v>
       </c>
-      <c r="C182" s="7"/>
-      <c r="D182" s="7" t="s">
+      <c r="C182" s="12"/>
+      <c r="D182" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E182" s="7" t="s">
+      <c r="E182" s="6" t="s">
         <v>1014</v>
       </c>
-      <c r="F182" s="7" t="s">
+      <c r="F182" s="6" t="s">
         <v>1015</v>
       </c>
-      <c r="G182" s="7" t="s">
+      <c r="G182" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H182" s="7" t="s">
+      <c r="H182" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="I182" s="7">
+      <c r="I182" s="6">
         <v>2</v>
       </c>
-      <c r="J182" s="8">
+      <c r="J182" s="7">
         <v>14</v>
       </c>
     </row>
@@ -11032,28 +11036,28 @@
       <c r="B183" t="s">
         <v>1017</v>
       </c>
-      <c r="C183" s="11" t="s">
+      <c r="C183" s="13" t="s">
         <v>1018</v>
       </c>
-      <c r="D183" s="9" t="s">
+      <c r="D183" s="8" t="s">
         <v>1019</v>
       </c>
-      <c r="E183" s="9" t="s">
+      <c r="E183" s="8" t="s">
         <v>1020</v>
       </c>
-      <c r="F183" s="9" t="s">
+      <c r="F183" s="8" t="s">
         <v>1021</v>
       </c>
-      <c r="G183" s="9" t="s">
+      <c r="G183" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H183" s="9" t="s">
+      <c r="H183" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="I183" s="9">
+      <c r="I183" s="8">
         <v>150</v>
       </c>
-      <c r="J183" s="10">
+      <c r="J183" s="9">
         <v>151</v>
       </c>
     </row>
@@ -11064,28 +11068,28 @@
       <c r="B184" t="s">
         <v>1023</v>
       </c>
-      <c r="C184" s="6" t="s">
+      <c r="C184" s="12" t="s">
         <v>1024</v>
       </c>
-      <c r="D184" s="7" t="s">
+      <c r="D184" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="E184" s="7" t="s">
+      <c r="E184" s="6" t="s">
         <v>1025</v>
       </c>
-      <c r="F184" s="7" t="s">
+      <c r="F184" s="6" t="s">
         <v>1026</v>
       </c>
-      <c r="G184" s="7" t="s">
+      <c r="G184" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H184" s="7" t="s">
+      <c r="H184" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="I184" s="7">
+      <c r="I184" s="6">
         <v>150</v>
       </c>
-      <c r="J184" s="8">
+      <c r="J184" s="7">
         <v>151</v>
       </c>
     </row>
@@ -11096,28 +11100,28 @@
       <c r="B185" t="s">
         <v>1028</v>
       </c>
-      <c r="C185" s="11" t="s">
+      <c r="C185" s="13" t="s">
         <v>1029</v>
       </c>
-      <c r="D185" s="9" t="s">
+      <c r="D185" s="8" t="s">
         <v>1030</v>
       </c>
-      <c r="E185" s="9" t="s">
+      <c r="E185" s="8" t="s">
         <v>1031</v>
       </c>
-      <c r="F185" s="9" t="s">
+      <c r="F185" s="8" t="s">
         <v>1032</v>
       </c>
-      <c r="G185" s="9" t="s">
+      <c r="G185" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H185" s="9" t="s">
+      <c r="H185" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="I185" s="9">
+      <c r="I185" s="8">
         <v>2</v>
       </c>
-      <c r="J185" s="10">
+      <c r="J185" s="9">
         <v>14</v>
       </c>
     </row>
@@ -11128,26 +11132,26 @@
       <c r="B186" t="s">
         <v>1034</v>
       </c>
-      <c r="C186" s="7"/>
-      <c r="D186" s="7" t="s">
+      <c r="C186" s="12"/>
+      <c r="D186" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E186" s="7" t="s">
+      <c r="E186" s="6" t="s">
         <v>1035</v>
       </c>
-      <c r="F186" s="7" t="s">
+      <c r="F186" s="6" t="s">
         <v>1036</v>
       </c>
-      <c r="G186" s="7" t="s">
+      <c r="G186" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H186" s="7" t="s">
+      <c r="H186" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I186" s="7">
+      <c r="I186" s="6">
         <v>19</v>
       </c>
-      <c r="J186" s="8">
+      <c r="J186" s="7">
         <v>29</v>
       </c>
     </row>
@@ -11158,26 +11162,26 @@
       <c r="B187" t="s">
         <v>1038</v>
       </c>
-      <c r="C187" s="9"/>
-      <c r="D187" s="9" t="s">
+      <c r="C187" s="13"/>
+      <c r="D187" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E187" s="9" t="s">
+      <c r="E187" s="8" t="s">
         <v>1039</v>
       </c>
-      <c r="F187" s="9" t="s">
+      <c r="F187" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="G187" s="9" t="s">
+      <c r="G187" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H187" s="9" t="s">
+      <c r="H187" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="I187" s="9">
+      <c r="I187" s="8">
         <v>2</v>
       </c>
-      <c r="J187" s="10">
+      <c r="J187" s="9">
         <v>11</v>
       </c>
     </row>
@@ -11188,28 +11192,28 @@
       <c r="B188" t="s">
         <v>1042</v>
       </c>
-      <c r="C188" s="6" t="s">
+      <c r="C188" s="12" t="s">
         <v>1043</v>
       </c>
-      <c r="D188" s="7" t="s">
+      <c r="D188" s="6" t="s">
         <v>1044</v>
       </c>
-      <c r="E188" s="7" t="s">
+      <c r="E188" s="6" t="s">
         <v>1045</v>
       </c>
-      <c r="F188" s="7" t="s">
+      <c r="F188" s="6" t="s">
         <v>1046</v>
       </c>
-      <c r="G188" s="7" t="s">
+      <c r="G188" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H188" s="7" t="s">
+      <c r="H188" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I188" s="7">
+      <c r="I188" s="6">
         <v>19</v>
       </c>
-      <c r="J188" s="8">
+      <c r="J188" s="7">
         <v>29</v>
       </c>
     </row>
@@ -11220,28 +11224,28 @@
       <c r="B189" t="s">
         <v>1048</v>
       </c>
-      <c r="C189" s="11" t="s">
+      <c r="C189" s="13" t="s">
         <v>1049</v>
       </c>
-      <c r="D189" s="9" t="s">
+      <c r="D189" s="8" t="s">
         <v>1050</v>
       </c>
-      <c r="E189" s="9" t="s">
+      <c r="E189" s="8" t="s">
         <v>1051</v>
       </c>
-      <c r="F189" s="9" t="s">
+      <c r="F189" s="8" t="s">
         <v>1052</v>
       </c>
-      <c r="G189" s="9" t="s">
+      <c r="G189" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H189" s="9" t="s">
+      <c r="H189" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I189" s="9">
+      <c r="I189" s="8">
         <v>19</v>
       </c>
-      <c r="J189" s="10">
+      <c r="J189" s="9">
         <v>29</v>
       </c>
     </row>
@@ -11252,26 +11256,26 @@
       <c r="B190" t="s">
         <v>1054</v>
       </c>
-      <c r="C190" s="7"/>
-      <c r="D190" s="7" t="s">
+      <c r="C190" s="12"/>
+      <c r="D190" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E190" s="7" t="s">
+      <c r="E190" s="6" t="s">
         <v>1055</v>
       </c>
-      <c r="F190" s="7" t="s">
+      <c r="F190" s="6" t="s">
         <v>1056</v>
       </c>
-      <c r="G190" s="7" t="s">
+      <c r="G190" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H190" s="7" t="s">
+      <c r="H190" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I190" s="7">
+      <c r="I190" s="6">
         <v>19</v>
       </c>
-      <c r="J190" s="8">
+      <c r="J190" s="7">
         <v>29</v>
       </c>
     </row>
@@ -11282,26 +11286,26 @@
       <c r="B191" t="s">
         <v>1058</v>
       </c>
-      <c r="C191" s="9"/>
-      <c r="D191" s="9" t="s">
+      <c r="C191" s="13"/>
+      <c r="D191" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E191" s="9" t="s">
+      <c r="E191" s="8" t="s">
         <v>1059</v>
       </c>
-      <c r="F191" s="9" t="s">
+      <c r="F191" s="8" t="s">
         <v>1060</v>
       </c>
-      <c r="G191" s="9" t="s">
+      <c r="G191" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H191" s="9" t="s">
+      <c r="H191" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I191" s="9">
+      <c r="I191" s="8">
         <v>19</v>
       </c>
-      <c r="J191" s="10">
+      <c r="J191" s="9">
         <v>21</v>
       </c>
     </row>
@@ -11312,28 +11316,28 @@
       <c r="B192" t="s">
         <v>1062</v>
       </c>
-      <c r="C192" s="6" t="s">
+      <c r="C192" s="12" t="s">
         <v>1063</v>
       </c>
-      <c r="D192" s="7" t="s">
+      <c r="D192" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E192" s="7" t="s">
+      <c r="E192" s="6" t="s">
         <v>1064</v>
       </c>
-      <c r="F192" s="7" t="s">
+      <c r="F192" s="6" t="s">
         <v>1065</v>
       </c>
-      <c r="G192" s="7" t="s">
+      <c r="G192" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H192" s="7" t="s">
+      <c r="H192" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I192" s="7">
+      <c r="I192" s="6">
         <v>19</v>
       </c>
-      <c r="J192" s="8">
+      <c r="J192" s="7">
         <v>29</v>
       </c>
     </row>
@@ -11344,28 +11348,28 @@
       <c r="B193" t="s">
         <v>1067</v>
       </c>
-      <c r="C193" s="11" t="s">
+      <c r="C193" s="13" t="s">
         <v>1068</v>
       </c>
-      <c r="D193" s="9" t="s">
+      <c r="D193" s="8" t="s">
         <v>1069</v>
       </c>
-      <c r="E193" s="9" t="s">
+      <c r="E193" s="8" t="s">
         <v>1070</v>
       </c>
-      <c r="F193" s="9" t="s">
+      <c r="F193" s="8" t="s">
         <v>1071</v>
       </c>
-      <c r="G193" s="9" t="s">
+      <c r="G193" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H193" s="9" t="s">
+      <c r="H193" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I193" s="9">
+      <c r="I193" s="8">
         <v>9</v>
       </c>
-      <c r="J193" s="10">
+      <c r="J193" s="9">
         <v>61</v>
       </c>
     </row>
@@ -11376,26 +11380,26 @@
       <c r="B194" t="s">
         <v>1073</v>
       </c>
-      <c r="C194" s="7"/>
-      <c r="D194" s="7" t="s">
+      <c r="C194" s="12"/>
+      <c r="D194" s="6" t="s">
         <v>1074</v>
       </c>
-      <c r="E194" s="7" t="s">
+      <c r="E194" s="6" t="s">
         <v>1075</v>
       </c>
-      <c r="F194" s="7" t="s">
+      <c r="F194" s="6" t="s">
         <v>1076</v>
       </c>
-      <c r="G194" s="7" t="s">
+      <c r="G194" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H194" s="7" t="s">
+      <c r="H194" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I194" s="7">
+      <c r="I194" s="6">
         <v>150</v>
       </c>
-      <c r="J194" s="8">
+      <c r="J194" s="7">
         <v>39</v>
       </c>
     </row>
@@ -11406,28 +11410,28 @@
       <c r="B195" t="s">
         <v>1078</v>
       </c>
-      <c r="C195" s="11" t="s">
+      <c r="C195" s="13" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D195" s="8" t="s">
         <v>1387</v>
       </c>
-      <c r="D195" s="9" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E195" s="9" t="s">
+      <c r="E195" s="8" t="s">
         <v>1079</v>
       </c>
-      <c r="F195" s="9" t="s">
+      <c r="F195" s="8" t="s">
         <v>1080</v>
       </c>
-      <c r="G195" s="9" t="s">
+      <c r="G195" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H195" s="9" t="s">
+      <c r="H195" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I195" s="9">
+      <c r="I195" s="8">
         <v>2</v>
       </c>
-      <c r="J195" s="10">
+      <c r="J195" s="9">
         <v>17</v>
       </c>
     </row>
@@ -11438,28 +11442,28 @@
       <c r="B196" t="s">
         <v>1082</v>
       </c>
-      <c r="C196" s="6" t="s">
+      <c r="C196" s="12" t="s">
         <v>1083</v>
       </c>
-      <c r="D196" s="7" t="s">
+      <c r="D196" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="E196" s="7" t="s">
+      <c r="E196" s="6" t="s">
         <v>1084</v>
       </c>
-      <c r="F196" s="7" t="s">
+      <c r="F196" s="6" t="s">
         <v>1085</v>
       </c>
-      <c r="G196" s="7" t="s">
+      <c r="G196" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H196" s="7" t="s">
+      <c r="H196" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I196" s="7">
+      <c r="I196" s="6">
         <v>142</v>
       </c>
-      <c r="J196" s="8">
+      <c r="J196" s="7">
         <v>145</v>
       </c>
     </row>
@@ -11470,28 +11474,28 @@
       <c r="B197" t="s">
         <v>1087</v>
       </c>
-      <c r="C197" s="11" t="s">
+      <c r="C197" s="13" t="s">
         <v>1088</v>
       </c>
-      <c r="D197" s="9" t="s">
+      <c r="D197" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="E197" s="9" t="s">
+      <c r="E197" s="8" t="s">
         <v>1089</v>
       </c>
-      <c r="F197" s="9" t="s">
+      <c r="F197" s="8" t="s">
         <v>1090</v>
       </c>
-      <c r="G197" s="9" t="s">
+      <c r="G197" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H197" s="9" t="s">
+      <c r="H197" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="I197" s="9">
+      <c r="I197" s="8">
         <v>2</v>
       </c>
-      <c r="J197" s="10">
+      <c r="J197" s="9">
         <v>11</v>
       </c>
     </row>
@@ -11502,28 +11506,28 @@
       <c r="B198" t="s">
         <v>1092</v>
       </c>
-      <c r="C198" s="6" t="s">
+      <c r="C198" s="12" t="s">
         <v>1093</v>
       </c>
-      <c r="D198" s="7" t="s">
+      <c r="D198" s="6" t="s">
         <v>1094</v>
       </c>
-      <c r="E198" s="7" t="s">
+      <c r="E198" s="6" t="s">
         <v>1095</v>
       </c>
-      <c r="F198" s="7" t="s">
+      <c r="F198" s="6" t="s">
         <v>1096</v>
       </c>
-      <c r="G198" s="7" t="s">
+      <c r="G198" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H198" s="7" t="s">
+      <c r="H198" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I198" s="7">
+      <c r="I198" s="6">
         <v>150</v>
       </c>
-      <c r="J198" s="8">
+      <c r="J198" s="7">
         <v>39</v>
       </c>
     </row>
@@ -11534,28 +11538,28 @@
       <c r="B199" t="s">
         <v>1098</v>
       </c>
-      <c r="C199" s="11" t="s">
+      <c r="C199" s="13" t="s">
         <v>1099</v>
       </c>
-      <c r="D199" s="9" t="s">
+      <c r="D199" s="8" t="s">
         <v>1100</v>
       </c>
-      <c r="E199" s="9" t="s">
+      <c r="E199" s="8" t="s">
         <v>1101</v>
       </c>
-      <c r="F199" s="9" t="s">
+      <c r="F199" s="8" t="s">
         <v>1102</v>
       </c>
-      <c r="G199" s="9" t="s">
+      <c r="G199" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H199" s="9" t="s">
+      <c r="H199" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="I199" s="9">
+      <c r="I199" s="8">
         <v>2</v>
       </c>
-      <c r="J199" s="10">
+      <c r="J199" s="9">
         <v>14</v>
       </c>
     </row>
@@ -11566,28 +11570,28 @@
       <c r="B200" t="s">
         <v>1104</v>
       </c>
-      <c r="C200" s="6" t="s">
+      <c r="C200" s="12" t="s">
         <v>1105</v>
       </c>
-      <c r="D200" s="7" t="s">
+      <c r="D200" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="E200" s="7" t="s">
+      <c r="E200" s="6" t="s">
         <v>1106</v>
       </c>
-      <c r="F200" s="7" t="s">
+      <c r="F200" s="6" t="s">
         <v>1107</v>
       </c>
-      <c r="G200" s="7" t="s">
+      <c r="G200" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H200" s="7" t="s">
+      <c r="H200" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="I200" s="7">
+      <c r="I200" s="6">
         <v>2</v>
       </c>
-      <c r="J200" s="8">
+      <c r="J200" s="7">
         <v>11</v>
       </c>
     </row>
@@ -11598,28 +11602,28 @@
       <c r="B201" t="s">
         <v>1109</v>
       </c>
-      <c r="C201" s="11" t="s">
+      <c r="C201" s="13" t="s">
         <v>1110</v>
       </c>
-      <c r="D201" s="9" t="s">
+      <c r="D201" s="8" t="s">
         <v>1111</v>
       </c>
-      <c r="E201" s="9" t="s">
+      <c r="E201" s="8" t="s">
         <v>1112</v>
       </c>
-      <c r="F201" s="9" t="s">
+      <c r="F201" s="8" t="s">
         <v>1113</v>
       </c>
-      <c r="G201" s="9" t="s">
+      <c r="G201" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H201" s="9" t="s">
+      <c r="H201" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="I201" s="9">
+      <c r="I201" s="8">
         <v>142</v>
       </c>
-      <c r="J201" s="10">
+      <c r="J201" s="9">
         <v>35</v>
       </c>
     </row>
@@ -11630,26 +11634,26 @@
       <c r="B202" t="s">
         <v>1115</v>
       </c>
-      <c r="C202" s="7"/>
-      <c r="D202" s="7" t="s">
+      <c r="C202" s="12"/>
+      <c r="D202" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E202" s="7" t="s">
+      <c r="E202" s="6" t="s">
         <v>1116</v>
       </c>
-      <c r="F202" s="7" t="s">
+      <c r="F202" s="6" t="s">
         <v>1117</v>
       </c>
-      <c r="G202" s="7" t="s">
+      <c r="G202" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H202" s="7" t="s">
+      <c r="H202" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I202" s="7">
+      <c r="I202" s="6">
         <v>19</v>
       </c>
-      <c r="J202" s="8">
+      <c r="J202" s="7">
         <v>29</v>
       </c>
     </row>
@@ -11660,28 +11664,28 @@
       <c r="B203" t="s">
         <v>1119</v>
       </c>
-      <c r="C203" s="11" t="s">
+      <c r="C203" s="13" t="s">
         <v>1120</v>
       </c>
-      <c r="D203" s="9" t="s">
+      <c r="D203" s="8" t="s">
         <v>1121</v>
       </c>
-      <c r="E203" s="9" t="s">
+      <c r="E203" s="8" t="s">
         <v>1122</v>
       </c>
-      <c r="F203" s="9" t="s">
+      <c r="F203" s="8" t="s">
         <v>1123</v>
       </c>
-      <c r="G203" s="9" t="s">
+      <c r="G203" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H203" s="9" t="s">
+      <c r="H203" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="I203" s="9">
+      <c r="I203" s="8">
         <v>150</v>
       </c>
-      <c r="J203" s="10">
+      <c r="J203" s="9">
         <v>151</v>
       </c>
     </row>
@@ -11692,28 +11696,28 @@
       <c r="B204" t="s">
         <v>1125</v>
       </c>
-      <c r="C204" s="6" t="s">
+      <c r="C204" s="12" t="s">
         <v>1126</v>
       </c>
-      <c r="D204" s="7" t="s">
+      <c r="D204" s="6" t="s">
         <v>1127</v>
       </c>
-      <c r="E204" s="7" t="s">
+      <c r="E204" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="F204" s="7" t="s">
+      <c r="F204" s="6" t="s">
         <v>1129</v>
       </c>
-      <c r="G204" s="7" t="s">
+      <c r="G204" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H204" s="7" t="s">
+      <c r="H204" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I204" s="7">
+      <c r="I204" s="6">
         <v>150</v>
       </c>
-      <c r="J204" s="8">
+      <c r="J204" s="7">
         <v>39</v>
       </c>
     </row>
@@ -11724,28 +11728,28 @@
       <c r="B205" t="s">
         <v>1131</v>
       </c>
-      <c r="C205" s="11" t="s">
+      <c r="C205" s="13" t="s">
         <v>1132</v>
       </c>
-      <c r="D205" s="9" t="s">
+      <c r="D205" s="8" t="s">
         <v>1133</v>
       </c>
-      <c r="E205" s="9" t="s">
+      <c r="E205" s="8" t="s">
         <v>1134</v>
       </c>
-      <c r="F205" s="9" t="s">
+      <c r="F205" s="8" t="s">
         <v>1135</v>
       </c>
-      <c r="G205" s="9" t="s">
+      <c r="G205" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H205" s="9" t="s">
+      <c r="H205" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="I205" s="9">
+      <c r="I205" s="8">
         <v>9</v>
       </c>
-      <c r="J205" s="10">
+      <c r="J205" s="9">
         <v>54</v>
       </c>
     </row>
@@ -11756,28 +11760,28 @@
       <c r="B206" t="s">
         <v>1137</v>
       </c>
-      <c r="C206" s="6" t="s">
+      <c r="C206" s="12" t="s">
         <v>1138</v>
       </c>
-      <c r="D206" s="7" t="s">
+      <c r="D206" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="E206" s="7" t="s">
+      <c r="E206" s="6" t="s">
         <v>1139</v>
       </c>
-      <c r="F206" s="7" t="s">
+      <c r="F206" s="6" t="s">
         <v>1140</v>
       </c>
-      <c r="G206" s="7" t="s">
+      <c r="G206" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H206" s="7" t="s">
+      <c r="H206" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="I206" s="7">
+      <c r="I206" s="6">
         <v>2</v>
       </c>
-      <c r="J206" s="8">
+      <c r="J206" s="7">
         <v>14</v>
       </c>
     </row>
@@ -11788,28 +11792,28 @@
       <c r="B207" t="s">
         <v>1142</v>
       </c>
-      <c r="C207" s="11" t="s">
+      <c r="C207" s="13" t="s">
         <v>1143</v>
       </c>
-      <c r="D207" s="9" t="s">
+      <c r="D207" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="E207" s="9" t="s">
+      <c r="E207" s="8" t="s">
         <v>1144</v>
       </c>
-      <c r="F207" s="9" t="s">
+      <c r="F207" s="8" t="s">
         <v>1145</v>
       </c>
-      <c r="G207" s="9" t="s">
+      <c r="G207" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H207" s="9" t="s">
+      <c r="H207" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="I207" s="9">
+      <c r="I207" s="8">
         <v>2</v>
       </c>
-      <c r="J207" s="10">
+      <c r="J207" s="9">
         <v>18</v>
       </c>
     </row>
@@ -11820,20 +11824,20 @@
       <c r="B208" t="s">
         <v>1147</v>
       </c>
-      <c r="C208" s="7"/>
-      <c r="D208" s="7" t="s">
+      <c r="C208" s="12"/>
+      <c r="D208" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E208" s="7" t="s">
+      <c r="E208" s="6" t="s">
         <v>1148</v>
       </c>
-      <c r="F208" s="7" t="s">
+      <c r="F208" s="6" t="s">
         <v>1149</v>
       </c>
-      <c r="G208" s="7"/>
-      <c r="H208" s="7"/>
-      <c r="I208" s="7"/>
-      <c r="J208" s="8"/>
+      <c r="G208" s="6"/>
+      <c r="H208" s="6"/>
+      <c r="I208" s="6"/>
+      <c r="J208" s="7"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
@@ -11842,28 +11846,28 @@
       <c r="B209" t="s">
         <v>1151</v>
       </c>
-      <c r="C209" s="11" t="s">
+      <c r="C209" s="13" t="s">
         <v>1152</v>
       </c>
-      <c r="D209" s="9" t="s">
+      <c r="D209" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="E209" s="9" t="s">
+      <c r="E209" s="8" t="s">
         <v>1154</v>
       </c>
-      <c r="F209" s="9" t="s">
+      <c r="F209" s="8" t="s">
         <v>1155</v>
       </c>
-      <c r="G209" s="9" t="s">
+      <c r="G209" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H209" s="9" t="s">
+      <c r="H209" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="I209" s="9">
+      <c r="I209" s="8">
         <v>2</v>
       </c>
-      <c r="J209" s="10">
+      <c r="J209" s="9">
         <v>14</v>
       </c>
     </row>
@@ -11874,1282 +11878,1282 @@
       <c r="B210" t="s">
         <v>1157</v>
       </c>
-      <c r="C210" s="6" t="s">
+      <c r="C210" s="12" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E210" s="6" t="s">
         <v>1158</v>
       </c>
-      <c r="D210" s="7" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E210" s="7" t="s">
+      <c r="F210" s="6" t="s">
         <v>1159</v>
       </c>
-      <c r="F210" s="7" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G210" s="7" t="s">
+      <c r="G210" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H210" s="7" t="s">
+      <c r="H210" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I210" s="7">
+      <c r="I210" s="6">
         <v>150</v>
       </c>
-      <c r="J210" s="8">
+      <c r="J210" s="7">
         <v>39</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B211" t="s">
         <v>1161</v>
       </c>
-      <c r="B211" t="s">
+      <c r="C211" s="13" t="s">
         <v>1162</v>
       </c>
-      <c r="C211" s="11" t="s">
+      <c r="D211" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E211" s="8" t="s">
         <v>1163</v>
       </c>
-      <c r="D211" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E211" s="9" t="s">
+      <c r="F211" s="8" t="s">
         <v>1164</v>
       </c>
-      <c r="F211" s="9" t="s">
-        <v>1165</v>
-      </c>
-      <c r="G211" s="9" t="s">
+      <c r="G211" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H211" s="9" t="s">
+      <c r="H211" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I211" s="9">
+      <c r="I211" s="8">
         <v>142</v>
       </c>
-      <c r="J211" s="10">
+      <c r="J211" s="9">
         <v>34</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B212" t="s">
         <v>1166</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C212" s="12" t="s">
         <v>1167</v>
       </c>
-      <c r="C212" s="6" t="s">
+      <c r="D212" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E212" s="6" t="s">
         <v>1168</v>
       </c>
-      <c r="D212" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="E212" s="7" t="s">
+      <c r="F212" s="6" t="s">
         <v>1169</v>
       </c>
-      <c r="F212" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="G212" s="7" t="s">
+      <c r="G212" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H212" s="7" t="s">
+      <c r="H212" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I212" s="7">
+      <c r="I212" s="6">
         <v>2</v>
       </c>
-      <c r="J212" s="8">
+      <c r="J212" s="7">
         <v>15</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B213" t="s">
         <v>1171</v>
       </c>
-      <c r="B213" t="s">
+      <c r="C213" s="13" t="s">
         <v>1172</v>
       </c>
-      <c r="C213" s="11" t="s">
+      <c r="D213" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E213" s="8" t="s">
         <v>1173</v>
       </c>
-      <c r="D213" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E213" s="9" t="s">
+      <c r="F213" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="F213" s="9" t="s">
-        <v>1175</v>
-      </c>
-      <c r="G213" s="9" t="s">
+      <c r="G213" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H213" s="9" t="s">
+      <c r="H213" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I213" s="9">
+      <c r="I213" s="8">
         <v>19</v>
       </c>
-      <c r="J213" s="10">
+      <c r="J213" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B214" t="s">
         <v>1176</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" s="12"/>
+      <c r="D214" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E214" s="6" t="s">
         <v>1177</v>
       </c>
-      <c r="C214" s="7"/>
-      <c r="D214" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E214" s="7" t="s">
+      <c r="F214" s="6" t="s">
         <v>1178</v>
       </c>
-      <c r="F214" s="7" t="s">
-        <v>1179</v>
-      </c>
-      <c r="G214" s="7" t="s">
+      <c r="G214" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H214" s="7" t="s">
+      <c r="H214" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I214" s="7">
+      <c r="I214" s="6">
         <v>150</v>
       </c>
-      <c r="J214" s="8">
+      <c r="J214" s="7">
         <v>154</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B215" t="s">
         <v>1180</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" s="13" t="s">
         <v>1181</v>
       </c>
-      <c r="C215" s="11" t="s">
+      <c r="D215" s="8" t="s">
         <v>1182</v>
       </c>
-      <c r="D215" s="9" t="s">
+      <c r="E215" s="8" t="s">
         <v>1183</v>
       </c>
-      <c r="E215" s="9" t="s">
+      <c r="F215" s="8" t="s">
         <v>1184</v>
       </c>
-      <c r="F215" s="9" t="s">
-        <v>1185</v>
-      </c>
-      <c r="G215" s="9" t="s">
+      <c r="G215" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H215" s="9" t="s">
+      <c r="H215" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="I215" s="9">
+      <c r="I215" s="8">
         <v>2</v>
       </c>
-      <c r="J215" s="10">
+      <c r="J215" s="9">
         <v>18</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B216" t="s">
         <v>1186</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" s="12" t="s">
         <v>1187</v>
       </c>
-      <c r="C216" s="6" t="s">
+      <c r="D216" s="6" t="s">
         <v>1188</v>
       </c>
-      <c r="D216" s="7" t="s">
+      <c r="E216" s="6" t="s">
         <v>1189</v>
       </c>
-      <c r="E216" s="7" t="s">
+      <c r="F216" s="6" t="s">
         <v>1190</v>
       </c>
-      <c r="F216" s="7" t="s">
-        <v>1191</v>
-      </c>
-      <c r="G216" s="7" t="s">
+      <c r="G216" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H216" s="7" t="s">
+      <c r="H216" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I216" s="7">
+      <c r="I216" s="6">
         <v>150</v>
       </c>
-      <c r="J216" s="8">
+      <c r="J216" s="7">
         <v>154</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B217" t="s">
         <v>1192</v>
       </c>
-      <c r="B217" t="s">
+      <c r="C217" s="13" t="s">
         <v>1193</v>
       </c>
-      <c r="C217" s="11" t="s">
+      <c r="D217" s="8" t="s">
         <v>1194</v>
       </c>
-      <c r="D217" s="9" t="s">
+      <c r="E217" s="8" t="s">
         <v>1195</v>
       </c>
-      <c r="E217" s="9" t="s">
+      <c r="F217" s="8" t="s">
         <v>1196</v>
       </c>
-      <c r="F217" s="9" t="s">
-        <v>1197</v>
-      </c>
-      <c r="G217" s="9" t="s">
+      <c r="G217" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H217" s="9" t="s">
+      <c r="H217" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="I217" s="9">
+      <c r="I217" s="8">
         <v>150</v>
       </c>
-      <c r="J217" s="10">
+      <c r="J217" s="9">
         <v>155</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B218" t="s">
         <v>1198</v>
       </c>
-      <c r="B218" t="s">
+      <c r="C218" s="12" t="s">
         <v>1199</v>
       </c>
-      <c r="C218" s="6" t="s">
+      <c r="D218" s="6" t="s">
         <v>1200</v>
       </c>
-      <c r="D218" s="7" t="s">
+      <c r="E218" s="6" t="s">
         <v>1201</v>
       </c>
-      <c r="E218" s="7" t="s">
+      <c r="F218" s="6" t="s">
         <v>1202</v>
       </c>
-      <c r="F218" s="7" t="s">
-        <v>1203</v>
-      </c>
-      <c r="G218" s="7" t="s">
+      <c r="G218" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H218" s="7" t="s">
+      <c r="H218" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I218" s="7">
+      <c r="I218" s="6">
         <v>142</v>
       </c>
-      <c r="J218" s="8">
+      <c r="J218" s="7">
         <v>145</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B219" t="s">
         <v>1204</v>
       </c>
-      <c r="B219" t="s">
+      <c r="C219" s="13" t="s">
         <v>1205</v>
       </c>
-      <c r="C219" s="11" t="s">
+      <c r="D219" s="8" t="s">
         <v>1206</v>
       </c>
-      <c r="D219" s="9" t="s">
+      <c r="E219" s="8" t="s">
         <v>1207</v>
       </c>
-      <c r="E219" s="9" t="s">
+      <c r="F219" s="8" t="s">
         <v>1208</v>
       </c>
-      <c r="F219" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="G219" s="9" t="s">
+      <c r="G219" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H219" s="9" t="s">
+      <c r="H219" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="I219" s="9">
+      <c r="I219" s="8">
         <v>142</v>
       </c>
-      <c r="J219" s="10">
+      <c r="J219" s="9">
         <v>30</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B220" t="s">
         <v>1210</v>
       </c>
-      <c r="B220" t="s">
+      <c r="C220" s="12" t="s">
         <v>1211</v>
       </c>
-      <c r="C220" s="6" t="s">
+      <c r="D220" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="E220" s="6" t="s">
         <v>1212</v>
       </c>
-      <c r="D220" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="E220" s="7" t="s">
+      <c r="F220" s="6" t="s">
         <v>1213</v>
       </c>
-      <c r="F220" s="7" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G220" s="7" t="s">
+      <c r="G220" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H220" s="7" t="s">
+      <c r="H220" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="I220" s="7">
+      <c r="I220" s="6">
         <v>142</v>
       </c>
-      <c r="J220" s="8">
+      <c r="J220" s="7">
         <v>143</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B221" t="s">
         <v>1215</v>
       </c>
-      <c r="B221" t="s">
+      <c r="C221" s="13" t="s">
         <v>1216</v>
       </c>
-      <c r="C221" s="11" t="s">
+      <c r="D221" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="E221" s="8" t="s">
         <v>1217</v>
       </c>
-      <c r="D221" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="E221" s="9" t="s">
+      <c r="F221" s="8" t="s">
         <v>1218</v>
       </c>
-      <c r="F221" s="9" t="s">
-        <v>1219</v>
-      </c>
-      <c r="G221" s="9" t="s">
+      <c r="G221" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H221" s="9" t="s">
+      <c r="H221" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="I221" s="9">
+      <c r="I221" s="8">
         <v>2</v>
       </c>
-      <c r="J221" s="10">
+      <c r="J221" s="9">
         <v>14</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B222" t="s">
         <v>1220</v>
       </c>
-      <c r="B222" t="s">
+      <c r="C222" s="12" t="s">
         <v>1221</v>
       </c>
-      <c r="C222" s="6" t="s">
+      <c r="D222" s="6" t="s">
         <v>1222</v>
       </c>
-      <c r="D222" s="7" t="s">
+      <c r="E222" s="6" t="s">
         <v>1223</v>
       </c>
-      <c r="E222" s="7" t="s">
+      <c r="F222" s="6" t="s">
         <v>1224</v>
       </c>
-      <c r="F222" s="7" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G222" s="7" t="s">
+      <c r="G222" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H222" s="7" t="s">
+      <c r="H222" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="I222" s="7">
+      <c r="I222" s="6">
         <v>142</v>
       </c>
-      <c r="J222" s="8">
+      <c r="J222" s="7">
         <v>35</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B223" t="s">
         <v>1226</v>
       </c>
-      <c r="B223" t="s">
+      <c r="C223" s="13"/>
+      <c r="D223" s="8" t="s">
         <v>1227</v>
       </c>
-      <c r="C223" s="9"/>
-      <c r="D223" s="9" t="s">
+      <c r="E223" s="8" t="s">
         <v>1228</v>
       </c>
-      <c r="E223" s="9" t="s">
+      <c r="F223" s="8" t="s">
         <v>1229</v>
       </c>
-      <c r="F223" s="9" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G223" s="9" t="s">
+      <c r="G223" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H223" s="9" t="s">
+      <c r="H223" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="I223" s="9">
+      <c r="I223" s="8">
         <v>142</v>
       </c>
-      <c r="J223" s="10">
+      <c r="J223" s="9">
         <v>35</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B224" t="s">
         <v>1231</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" s="12" t="s">
         <v>1232</v>
       </c>
-      <c r="C224" s="6" t="s">
+      <c r="D224" s="6" t="s">
         <v>1233</v>
       </c>
-      <c r="D224" s="7" t="s">
+      <c r="E224" s="6" t="s">
         <v>1234</v>
       </c>
-      <c r="E224" s="7" t="s">
+      <c r="F224" s="6" t="s">
         <v>1235</v>
       </c>
-      <c r="F224" s="7" t="s">
-        <v>1236</v>
-      </c>
-      <c r="G224" s="7" t="s">
+      <c r="G224" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H224" s="7" t="s">
+      <c r="H224" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="I224" s="7">
+      <c r="I224" s="6">
         <v>2</v>
       </c>
-      <c r="J224" s="8">
+      <c r="J224" s="7">
         <v>11</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B225" t="s">
         <v>1237</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" s="13"/>
+      <c r="D225" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E225" s="8" t="s">
         <v>1238</v>
       </c>
-      <c r="C225" s="9"/>
-      <c r="D225" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E225" s="9" t="s">
+      <c r="F225" s="8" t="s">
         <v>1239</v>
       </c>
-      <c r="F225" s="9" t="s">
-        <v>1240</v>
-      </c>
-      <c r="G225" s="9" t="s">
+      <c r="G225" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H225" s="9" t="s">
+      <c r="H225" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I225" s="9">
+      <c r="I225" s="8">
         <v>9</v>
       </c>
-      <c r="J225" s="10">
+      <c r="J225" s="9">
         <v>61</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B226" t="s">
         <v>1241</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C226" s="12" t="s">
         <v>1242</v>
       </c>
-      <c r="C226" s="6" t="s">
+      <c r="D226" s="6" t="s">
         <v>1243</v>
       </c>
-      <c r="D226" s="7" t="s">
+      <c r="E226" s="6" t="s">
         <v>1244</v>
       </c>
-      <c r="E226" s="7" t="s">
+      <c r="F226" s="6" t="s">
         <v>1245</v>
       </c>
-      <c r="F226" s="7" t="s">
-        <v>1246</v>
-      </c>
-      <c r="G226" s="7" t="s">
+      <c r="G226" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H226" s="7" t="s">
+      <c r="H226" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I226" s="7">
+      <c r="I226" s="6">
         <v>9</v>
       </c>
-      <c r="J226" s="8">
+      <c r="J226" s="7">
         <v>61</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B227" t="s">
         <v>1247</v>
       </c>
-      <c r="B227" t="s">
+      <c r="C227" s="13" t="s">
         <v>1248</v>
       </c>
-      <c r="C227" s="11" t="s">
+      <c r="D227" s="8" t="s">
         <v>1249</v>
       </c>
-      <c r="D227" s="9" t="s">
+      <c r="E227" s="8" t="s">
         <v>1250</v>
       </c>
-      <c r="E227" s="9" t="s">
+      <c r="F227" s="8" t="s">
         <v>1251</v>
       </c>
-      <c r="F227" s="9" t="s">
-        <v>1252</v>
-      </c>
-      <c r="G227" s="9" t="s">
+      <c r="G227" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H227" s="9" t="s">
+      <c r="H227" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I227" s="9">
+      <c r="I227" s="8">
         <v>19</v>
       </c>
-      <c r="J227" s="10">
+      <c r="J227" s="9">
         <v>29</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B228" t="s">
         <v>1253</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C228" s="12" t="s">
         <v>1254</v>
       </c>
-      <c r="C228" s="6" t="s">
+      <c r="D228" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="E228" s="6" t="s">
         <v>1255</v>
       </c>
-      <c r="D228" s="7" t="s">
-        <v>835</v>
-      </c>
-      <c r="E228" s="7" t="s">
+      <c r="F228" s="6" t="s">
         <v>1256</v>
       </c>
-      <c r="F228" s="7" t="s">
-        <v>1257</v>
-      </c>
-      <c r="G228" s="7" t="s">
+      <c r="G228" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H228" s="7" t="s">
+      <c r="H228" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I228" s="7">
+      <c r="I228" s="6">
         <v>2</v>
       </c>
-      <c r="J228" s="8">
+      <c r="J228" s="7">
         <v>15</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B229" t="s">
         <v>1258</v>
       </c>
-      <c r="B229" t="s">
+      <c r="C229" s="13" t="s">
         <v>1259</v>
       </c>
-      <c r="C229" s="11" t="s">
+      <c r="D229" s="8" t="s">
         <v>1260</v>
       </c>
-      <c r="D229" s="9" t="s">
+      <c r="E229" s="8" t="s">
         <v>1261</v>
       </c>
-      <c r="E229" s="9" t="s">
+      <c r="F229" s="8" t="s">
         <v>1262</v>
       </c>
-      <c r="F229" s="9" t="s">
-        <v>1263</v>
-      </c>
-      <c r="G229" s="9" t="s">
+      <c r="G229" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H229" s="9" t="s">
+      <c r="H229" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I229" s="9">
+      <c r="I229" s="8">
         <v>142</v>
       </c>
-      <c r="J229" s="10">
+      <c r="J229" s="9">
         <v>145</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B230" t="s">
         <v>1264</v>
       </c>
-      <c r="B230" t="s">
+      <c r="C230" s="12" t="s">
         <v>1265</v>
       </c>
-      <c r="C230" s="6" t="s">
+      <c r="D230" s="6" t="s">
         <v>1266</v>
       </c>
-      <c r="D230" s="7" t="s">
+      <c r="E230" s="6" t="s">
         <v>1267</v>
       </c>
-      <c r="E230" s="7" t="s">
+      <c r="F230" s="6" t="s">
         <v>1268</v>
       </c>
-      <c r="F230" s="7" t="s">
-        <v>1269</v>
-      </c>
-      <c r="G230" s="7" t="s">
+      <c r="G230" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H230" s="7" t="s">
+      <c r="H230" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="I230" s="7">
+      <c r="I230" s="6">
         <v>142</v>
       </c>
-      <c r="J230" s="8">
+      <c r="J230" s="7">
         <v>143</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B231" t="s">
         <v>1270</v>
       </c>
-      <c r="B231" t="s">
+      <c r="C231" s="13"/>
+      <c r="D231" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E231" s="8" t="s">
         <v>1271</v>
       </c>
-      <c r="C231" s="9"/>
-      <c r="D231" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E231" s="9" t="s">
+      <c r="F231" s="8" t="s">
         <v>1272</v>
       </c>
-      <c r="F231" s="9" t="s">
-        <v>1273</v>
-      </c>
-      <c r="G231" s="9" t="s">
+      <c r="G231" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H231" s="9" t="s">
+      <c r="H231" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I231" s="9">
+      <c r="I231" s="8">
         <v>19</v>
       </c>
-      <c r="J231" s="10">
+      <c r="J231" s="9">
         <v>29</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B232" t="s">
         <v>1274</v>
       </c>
-      <c r="B232" t="s">
+      <c r="C232" s="12" t="s">
         <v>1275</v>
       </c>
-      <c r="C232" s="6" t="s">
+      <c r="D232" s="6" t="s">
         <v>1276</v>
       </c>
-      <c r="D232" s="7" t="s">
+      <c r="E232" s="6" t="s">
         <v>1277</v>
       </c>
-      <c r="E232" s="7" t="s">
+      <c r="F232" s="6" t="s">
         <v>1278</v>
       </c>
-      <c r="F232" s="7" t="s">
-        <v>1279</v>
-      </c>
-      <c r="G232" s="7" t="s">
+      <c r="G232" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H232" s="7" t="s">
+      <c r="H232" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I232" s="7">
+      <c r="I232" s="6">
         <v>9</v>
       </c>
-      <c r="J232" s="8">
+      <c r="J232" s="7">
         <v>61</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B233" t="s">
         <v>1280</v>
       </c>
-      <c r="B233" t="s">
+      <c r="C233" s="13" t="s">
         <v>1281</v>
       </c>
-      <c r="C233" s="11" t="s">
+      <c r="D233" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E233" s="8" t="s">
         <v>1282</v>
       </c>
-      <c r="D233" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E233" s="9" t="s">
+      <c r="F233" s="8" t="s">
         <v>1283</v>
       </c>
-      <c r="F233" s="9" t="s">
-        <v>1284</v>
-      </c>
-      <c r="G233" s="9" t="s">
+      <c r="G233" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H233" s="9" t="s">
+      <c r="H233" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="I233" s="9">
+      <c r="I233" s="8">
         <v>2</v>
       </c>
-      <c r="J233" s="10">
+      <c r="J233" s="9">
         <v>14</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B234" t="s">
         <v>1285</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" s="12" t="s">
         <v>1286</v>
       </c>
-      <c r="C234" s="6" t="s">
+      <c r="D234" s="6" t="s">
         <v>1287</v>
       </c>
-      <c r="D234" s="7" t="s">
+      <c r="E234" s="6" t="s">
         <v>1288</v>
       </c>
-      <c r="E234" s="7" t="s">
+      <c r="F234" s="6" t="s">
         <v>1289</v>
       </c>
-      <c r="F234" s="7" t="s">
-        <v>1290</v>
-      </c>
-      <c r="G234" s="7" t="s">
+      <c r="G234" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H234" s="7" t="s">
+      <c r="H234" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="I234" s="7">
+      <c r="I234" s="6">
         <v>150</v>
       </c>
-      <c r="J234" s="8">
+      <c r="J234" s="7">
         <v>151</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B235" t="s">
         <v>1291</v>
       </c>
-      <c r="B235" t="s">
+      <c r="C235" s="13" t="s">
         <v>1292</v>
       </c>
-      <c r="C235" s="11" t="s">
+      <c r="D235" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="E235" s="8" t="s">
         <v>1293</v>
       </c>
-      <c r="D235" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="E235" s="9" t="s">
+      <c r="F235" s="8" t="s">
         <v>1294</v>
       </c>
-      <c r="F235" s="9" t="s">
-        <v>1295</v>
-      </c>
-      <c r="G235" s="9" t="s">
+      <c r="G235" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H235" s="9" t="s">
+      <c r="H235" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I235" s="9">
+      <c r="I235" s="8">
         <v>142</v>
       </c>
-      <c r="J235" s="10">
+      <c r="J235" s="9">
         <v>145</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B236" t="s">
         <v>1296</v>
       </c>
-      <c r="B236" t="s">
+      <c r="C236" s="12" t="s">
         <v>1297</v>
       </c>
-      <c r="C236" s="6" t="s">
+      <c r="D236" s="6" t="s">
         <v>1298</v>
       </c>
-      <c r="D236" s="7" t="s">
+      <c r="E236" s="6" t="s">
         <v>1299</v>
       </c>
-      <c r="E236" s="7" t="s">
+      <c r="F236" s="6" t="s">
         <v>1300</v>
       </c>
-      <c r="F236" s="7" t="s">
-        <v>1301</v>
-      </c>
-      <c r="G236" s="7" t="s">
+      <c r="G236" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H236" s="7" t="s">
+      <c r="H236" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I236" s="7">
+      <c r="I236" s="6">
         <v>150</v>
       </c>
-      <c r="J236" s="8">
+      <c r="J236" s="7">
         <v>154</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B237" t="s">
         <v>1302</v>
       </c>
-      <c r="B237" t="s">
+      <c r="C237" s="13" t="s">
         <v>1303</v>
       </c>
-      <c r="C237" s="11" t="s">
+      <c r="D237" s="8" t="s">
         <v>1304</v>
       </c>
-      <c r="D237" s="9" t="s">
+      <c r="E237" s="8" t="s">
         <v>1305</v>
       </c>
-      <c r="E237" s="9" t="s">
+      <c r="F237" s="8" t="s">
         <v>1306</v>
       </c>
-      <c r="F237" s="9" t="s">
-        <v>1307</v>
-      </c>
-      <c r="G237" s="9" t="s">
+      <c r="G237" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H237" s="9" t="s">
+      <c r="H237" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I237" s="9">
+      <c r="I237" s="8">
         <v>19</v>
       </c>
-      <c r="J237" s="10">
+      <c r="J237" s="9">
         <v>21</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B238" t="s">
         <v>1308</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" s="12"/>
+      <c r="D238" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E238" s="6" t="s">
         <v>1309</v>
       </c>
-      <c r="C238" s="7"/>
-      <c r="D238" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E238" s="7" t="s">
+      <c r="F238" s="6" t="s">
         <v>1310</v>
       </c>
-      <c r="F238" s="7" t="s">
-        <v>1311</v>
-      </c>
-      <c r="G238" s="7"/>
-      <c r="H238" s="7"/>
-      <c r="I238" s="7"/>
-      <c r="J238" s="8"/>
+      <c r="G238" s="6"/>
+      <c r="H238" s="6"/>
+      <c r="I238" s="6"/>
+      <c r="J238" s="7"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B239" t="s">
         <v>1312</v>
       </c>
-      <c r="B239" t="s">
+      <c r="C239" s="13" t="s">
         <v>1313</v>
       </c>
-      <c r="C239" s="11" t="s">
+      <c r="D239" s="8" t="s">
         <v>1314</v>
       </c>
-      <c r="D239" s="9" t="s">
+      <c r="E239" s="8" t="s">
         <v>1315</v>
       </c>
-      <c r="E239" s="9" t="s">
+      <c r="F239" s="8" t="s">
         <v>1316</v>
       </c>
-      <c r="F239" s="9" t="s">
-        <v>1317</v>
-      </c>
-      <c r="G239" s="9" t="s">
+      <c r="G239" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H239" s="9" t="s">
+      <c r="H239" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I239" s="9">
+      <c r="I239" s="8">
         <v>19</v>
       </c>
-      <c r="J239" s="10">
+      <c r="J239" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B240" t="s">
         <v>1318</v>
       </c>
-      <c r="B240" t="s">
+      <c r="C240" s="12" t="s">
         <v>1319</v>
       </c>
-      <c r="C240" s="6" t="s">
+      <c r="D240" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="E240" s="6" t="s">
         <v>1320</v>
       </c>
-      <c r="D240" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="E240" s="7" t="s">
+      <c r="F240" s="6" t="s">
         <v>1321</v>
       </c>
-      <c r="F240" s="7" t="s">
-        <v>1322</v>
-      </c>
-      <c r="G240" s="7" t="s">
+      <c r="G240" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H240" s="7" t="s">
+      <c r="H240" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="I240" s="7">
+      <c r="I240" s="6">
         <v>142</v>
       </c>
-      <c r="J240" s="8">
+      <c r="J240" s="7">
         <v>143</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B241" t="s">
         <v>1323</v>
       </c>
-      <c r="B241" t="s">
+      <c r="C241" s="13" t="s">
         <v>1324</v>
       </c>
-      <c r="C241" s="11" t="s">
+      <c r="D241" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="E241" s="8" t="s">
         <v>1325</v>
       </c>
-      <c r="D241" s="9" t="s">
-        <v>879</v>
-      </c>
-      <c r="E241" s="9" t="s">
+      <c r="F241" s="8" t="s">
         <v>1326</v>
       </c>
-      <c r="F241" s="9" t="s">
-        <v>1327</v>
-      </c>
-      <c r="G241" s="9" t="s">
+      <c r="G241" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H241" s="9" t="s">
+      <c r="H241" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="I241" s="9">
+      <c r="I241" s="8">
         <v>9</v>
       </c>
-      <c r="J241" s="10">
+      <c r="J241" s="9">
         <v>54</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B242" t="s">
         <v>1328</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C242" s="12" t="s">
         <v>1329</v>
       </c>
-      <c r="C242" s="6" t="s">
+      <c r="D242" s="6" t="s">
         <v>1330</v>
       </c>
-      <c r="D242" s="7" t="s">
+      <c r="E242" s="6" t="s">
         <v>1331</v>
       </c>
-      <c r="E242" s="7" t="s">
+      <c r="F242" s="6" t="s">
         <v>1332</v>
       </c>
-      <c r="F242" s="7" t="s">
-        <v>1333</v>
-      </c>
-      <c r="G242" s="7" t="s">
+      <c r="G242" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H242" s="7" t="s">
+      <c r="H242" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I242" s="7">
+      <c r="I242" s="6">
         <v>19</v>
       </c>
-      <c r="J242" s="8">
+      <c r="J242" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B243" t="s">
         <v>1334</v>
       </c>
-      <c r="B243" t="s">
+      <c r="C243" s="13" t="s">
         <v>1335</v>
       </c>
-      <c r="C243" s="11" t="s">
+      <c r="D243" s="8" t="s">
         <v>1336</v>
       </c>
-      <c r="D243" s="9" t="s">
+      <c r="E243" s="8" t="s">
         <v>1337</v>
       </c>
-      <c r="E243" s="9" t="s">
+      <c r="F243" s="8" t="s">
         <v>1338</v>
       </c>
-      <c r="F243" s="9" t="s">
-        <v>1339</v>
-      </c>
-      <c r="G243" s="9" t="s">
+      <c r="G243" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H243" s="9" t="s">
+      <c r="H243" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="I243" s="9">
+      <c r="I243" s="8">
         <v>142</v>
       </c>
-      <c r="J243" s="10">
+      <c r="J243" s="9">
         <v>35</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B244" t="s">
         <v>1340</v>
       </c>
-      <c r="B244" t="s">
+      <c r="C244" s="12"/>
+      <c r="D244" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E244" s="6" t="s">
         <v>1341</v>
       </c>
-      <c r="C244" s="7"/>
-      <c r="D244" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E244" s="7" t="s">
+      <c r="F244" s="6" t="s">
         <v>1342</v>
       </c>
-      <c r="F244" s="7" t="s">
-        <v>1343</v>
-      </c>
-      <c r="G244" s="7" t="s">
+      <c r="G244" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H244" s="7" t="s">
+      <c r="H244" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I244" s="7">
+      <c r="I244" s="6">
         <v>19</v>
       </c>
-      <c r="J244" s="8">
+      <c r="J244" s="7">
         <v>29</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B245" t="s">
         <v>1344</v>
       </c>
-      <c r="B245" t="s">
+      <c r="C245" s="13"/>
+      <c r="D245" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E245" s="8" t="s">
         <v>1345</v>
       </c>
-      <c r="C245" s="9"/>
-      <c r="D245" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E245" s="9" t="s">
+      <c r="F245" s="8" t="s">
         <v>1346</v>
       </c>
-      <c r="F245" s="9" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G245" s="9" t="s">
+      <c r="G245" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H245" s="9" t="s">
+      <c r="H245" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I245" s="9">
+      <c r="I245" s="8">
         <v>19</v>
       </c>
-      <c r="J245" s="10">
+      <c r="J245" s="9">
         <v>29</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B246" t="s">
         <v>1348</v>
       </c>
-      <c r="B246" t="s">
+      <c r="C246" s="12"/>
+      <c r="D246" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E246" s="6" t="s">
         <v>1349</v>
       </c>
-      <c r="C246" s="7"/>
-      <c r="D246" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E246" s="7" t="s">
+      <c r="F246" s="6" t="s">
         <v>1350</v>
       </c>
-      <c r="F246" s="7" t="s">
-        <v>1351</v>
-      </c>
-      <c r="G246" s="7" t="s">
+      <c r="G246" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H246" s="7" t="s">
+      <c r="H246" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I246" s="7">
+      <c r="I246" s="6">
         <v>9</v>
       </c>
-      <c r="J246" s="8">
+      <c r="J246" s="7">
         <v>61</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B247" t="s">
         <v>1352</v>
       </c>
-      <c r="B247" t="s">
+      <c r="C247" s="13"/>
+      <c r="D247" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E247" s="8" t="s">
         <v>1353</v>
       </c>
-      <c r="C247" s="9"/>
-      <c r="D247" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E247" s="9" t="s">
+      <c r="F247" s="8" t="s">
         <v>1354</v>
       </c>
-      <c r="F247" s="9" t="s">
-        <v>1355</v>
-      </c>
-      <c r="G247" s="9" t="s">
+      <c r="G247" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H247" s="9" t="s">
+      <c r="H247" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I247" s="9">
+      <c r="I247" s="8">
         <v>2</v>
       </c>
-      <c r="J247" s="10">
+      <c r="J247" s="9">
         <v>15</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B248" t="s">
         <v>1356</v>
       </c>
-      <c r="B248" t="s">
+      <c r="C248" s="12" t="s">
         <v>1357</v>
       </c>
-      <c r="C248" s="6" t="s">
+      <c r="D248" s="6" t="s">
         <v>1358</v>
       </c>
-      <c r="D248" s="7" t="s">
+      <c r="E248" s="6" t="s">
         <v>1359</v>
       </c>
-      <c r="E248" s="7" t="s">
+      <c r="F248" s="6" t="s">
         <v>1360</v>
       </c>
-      <c r="F248" s="7" t="s">
+      <c r="G248" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H248" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I248" s="6">
+        <v>142</v>
+      </c>
+      <c r="J248" s="7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A249" s="4" t="s">
         <v>1361</v>
       </c>
-      <c r="G248" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H248" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I248" s="7">
-        <v>142</v>
-      </c>
-      <c r="J248" s="8">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A249" s="4" t="s">
+      <c r="B249" t="s">
         <v>1362</v>
       </c>
-      <c r="B249" t="s">
+      <c r="C249" s="13" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D249" s="8" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E249" s="8" t="s">
         <v>1363</v>
       </c>
-      <c r="C249" s="12" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D249" s="9" t="s">
+      <c r="F249" s="8" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G249" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H249" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="I249" s="8">
+        <v>2</v>
+      </c>
+      <c r="J249" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A250" s="5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C250" s="14" t="s">
         <v>1390</v>
       </c>
-      <c r="E249" s="9" t="s">
-        <v>1364</v>
-      </c>
-      <c r="F249" s="9" t="s">
-        <v>1365</v>
-      </c>
-      <c r="G249" s="9" t="s">
+      <c r="D250" s="10" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E250" s="10" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F250" s="10" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G250" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H249" s="9" t="s">
+      <c r="H250" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="I249" s="9">
+      <c r="I250" s="10">
         <v>2</v>
       </c>
-      <c r="J249" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A250" s="5" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B250" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C250" s="13" t="s">
-        <v>1391</v>
-      </c>
-      <c r="D250" s="14" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E250" s="14" t="s">
-        <v>1368</v>
-      </c>
-      <c r="F250" s="14" t="s">
-        <v>1369</v>
-      </c>
-      <c r="G250" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H250" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="I250" s="14">
-        <v>2</v>
-      </c>
-      <c r="J250" s="15">
+      <c r="J250" s="11">
         <v>14</v>
       </c>
     </row>
